--- a/clang_libcpp/scattered erasure by key.xlsx
+++ b/clang_libcpp/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.772374</v>
+        <v>0.7704299999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.411566</v>
+        <v>0.288703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.299038</v>
+        <v>0.297062</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.774075</v>
+        <v>0.769846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.415103</v>
+        <v>0.291455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.30227</v>
+        <v>0.29832</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.77768</v>
+        <v>0.773844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.417198</v>
+        <v>0.294907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.305177</v>
+        <v>0.301263</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7804759999999999</v>
+        <v>0.777595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.420491</v>
+        <v>0.295345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3072</v>
+        <v>0.305101</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.781655</v>
+        <v>0.777348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.421802</v>
+        <v>0.297605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.308644</v>
+        <v>0.30543</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.784504</v>
+        <v>0.781456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.424184</v>
+        <v>0.301839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.317075</v>
+        <v>0.314776</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.779934</v>
+        <v>0.777282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.425768</v>
+        <v>0.302716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.317822</v>
+        <v>0.315612</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7821900000000001</v>
+        <v>0.779489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.426593</v>
+        <v>0.304647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.320464</v>
+        <v>0.317721</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.783394</v>
+        <v>0.781847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.429783</v>
+        <v>0.306758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322392</v>
+        <v>0.319769</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.784739</v>
+        <v>0.7825260000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.434244</v>
+        <v>0.307957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324058</v>
+        <v>0.321565</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.786849</v>
+        <v>0.785372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.434258</v>
+        <v>0.309813</v>
       </c>
       <c r="D12" t="n">
-        <v>0.324896</v>
+        <v>0.323278</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.788565</v>
+        <v>0.787595</v>
       </c>
       <c r="C13" t="n">
-        <v>0.435061</v>
+        <v>0.311465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325439</v>
+        <v>0.324517</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.791005</v>
+        <v>0.789669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.437555</v>
+        <v>0.313768</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328835</v>
+        <v>0.327325</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.792191</v>
+        <v>0.790767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437171</v>
+        <v>0.314629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.330197</v>
+        <v>0.328564</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7929890000000001</v>
+        <v>0.792013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.438353</v>
+        <v>0.315269</v>
       </c>
       <c r="D16" t="n">
-        <v>0.331445</v>
+        <v>0.330055</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.794957</v>
+        <v>0.793346</v>
       </c>
       <c r="C17" t="n">
-        <v>0.440541</v>
+        <v>0.317756</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332351</v>
+        <v>0.3318</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.796228</v>
+        <v>0.794646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.442032</v>
+        <v>0.31887</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334918</v>
+        <v>0.333901</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.796799</v>
+        <v>0.795882</v>
       </c>
       <c r="C19" t="n">
-        <v>0.443011</v>
+        <v>0.320557</v>
       </c>
       <c r="D19" t="n">
-        <v>0.335632</v>
+        <v>0.33456</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.799473</v>
+        <v>0.798477</v>
       </c>
       <c r="C20" t="n">
-        <v>0.444413</v>
+        <v>0.322776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.338055</v>
+        <v>0.33679</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.800915</v>
+        <v>0.799654</v>
       </c>
       <c r="C21" t="n">
-        <v>0.443997</v>
+        <v>0.321758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.339159</v>
+        <v>0.338227</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.799704</v>
+        <v>0.798679</v>
       </c>
       <c r="C22" t="n">
-        <v>0.445571</v>
+        <v>0.322216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339549</v>
+        <v>0.338882</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.800444</v>
+        <v>0.799268</v>
       </c>
       <c r="C23" t="n">
-        <v>0.447741</v>
+        <v>0.323334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3405</v>
+        <v>0.339932</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.801824</v>
+        <v>0.801096</v>
       </c>
       <c r="C24" t="n">
-        <v>0.449304</v>
+        <v>0.325298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.342452</v>
+        <v>0.341616</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.803835</v>
+        <v>0.802746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.449484</v>
+        <v>0.325504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.343665</v>
+        <v>0.34285</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8041700000000001</v>
+        <v>0.803136</v>
       </c>
       <c r="C26" t="n">
-        <v>0.448878</v>
+        <v>0.325498</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343923</v>
+        <v>0.343306</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.806032</v>
+        <v>0.804739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.449623</v>
+        <v>0.326664</v>
       </c>
       <c r="D27" t="n">
-        <v>0.345243</v>
+        <v>0.344632</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.806142</v>
+        <v>0.805325</v>
       </c>
       <c r="C28" t="n">
-        <v>0.45024</v>
+        <v>0.327739</v>
       </c>
       <c r="D28" t="n">
-        <v>0.345982</v>
+        <v>0.345271</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.807891</v>
+        <v>0.807149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.450463</v>
+        <v>0.327902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.347047</v>
+        <v>0.346387</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.808724</v>
+        <v>0.80788</v>
       </c>
       <c r="C30" t="n">
-        <v>0.451346</v>
+        <v>0.328919</v>
       </c>
       <c r="D30" t="n">
-        <v>0.347325</v>
+        <v>0.346882</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.809885</v>
+        <v>0.808771</v>
       </c>
       <c r="C31" t="n">
-        <v>0.452689</v>
+        <v>0.330182</v>
       </c>
       <c r="D31" t="n">
-        <v>0.348386</v>
+        <v>0.347879</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.810248</v>
+        <v>0.809109</v>
       </c>
       <c r="C32" t="n">
-        <v>0.453893</v>
+        <v>0.330916</v>
       </c>
       <c r="D32" t="n">
-        <v>0.349747</v>
+        <v>0.348931</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.812235</v>
+        <v>0.811105</v>
       </c>
       <c r="C33" t="n">
-        <v>0.453895</v>
+        <v>0.331706</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350372</v>
+        <v>0.349455</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.812501</v>
+        <v>0.811593</v>
       </c>
       <c r="C34" t="n">
-        <v>0.45519</v>
+        <v>0.332667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351647</v>
+        <v>0.350662</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.813574</v>
+        <v>0.812399</v>
       </c>
       <c r="C35" t="n">
-        <v>0.453745</v>
+        <v>0.330676</v>
       </c>
       <c r="D35" t="n">
-        <v>0.352026</v>
+        <v>0.351406</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8059460000000001</v>
+        <v>0.805389</v>
       </c>
       <c r="C36" t="n">
-        <v>0.453578</v>
+        <v>0.331265</v>
       </c>
       <c r="D36" t="n">
-        <v>0.352622</v>
+        <v>0.352053</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.808184</v>
+        <v>0.8066990000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.456202</v>
+        <v>0.331041</v>
       </c>
       <c r="D37" t="n">
-        <v>0.353458</v>
+        <v>0.351949</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.808751</v>
+        <v>0.807401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.457738</v>
+        <v>0.332333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.354084</v>
+        <v>0.353268</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.810039</v>
+        <v>0.808515</v>
       </c>
       <c r="C39" t="n">
-        <v>0.456417</v>
+        <v>0.333211</v>
       </c>
       <c r="D39" t="n">
-        <v>0.355164</v>
+        <v>0.354695</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810009</v>
+        <v>0.811854</v>
       </c>
       <c r="C40" t="n">
-        <v>0.457295</v>
+        <v>0.3345</v>
       </c>
       <c r="D40" t="n">
-        <v>0.356401</v>
+        <v>0.355553</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8116679999999999</v>
+        <v>0.811185</v>
       </c>
       <c r="C41" t="n">
-        <v>0.457251</v>
+        <v>0.334281</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35717</v>
+        <v>0.356153</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.812782</v>
+        <v>0.813168</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4592</v>
+        <v>0.337984</v>
       </c>
       <c r="D42" t="n">
-        <v>0.358254</v>
+        <v>0.357651</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.813074</v>
+        <v>0.815804</v>
       </c>
       <c r="C43" t="n">
-        <v>0.459562</v>
+        <v>0.340506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.358512</v>
+        <v>0.360286</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.813545</v>
+        <v>0.814497</v>
       </c>
       <c r="C44" t="n">
-        <v>0.462398</v>
+        <v>0.338267</v>
       </c>
       <c r="D44" t="n">
-        <v>0.359022</v>
+        <v>0.357781</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.816068</v>
+        <v>0.815406</v>
       </c>
       <c r="C45" t="n">
-        <v>0.464808</v>
+        <v>0.341357</v>
       </c>
       <c r="D45" t="n">
-        <v>0.361485</v>
+        <v>0.360779</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.816561</v>
+        <v>0.816487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.465053</v>
+        <v>0.341695</v>
       </c>
       <c r="D46" t="n">
-        <v>0.362159</v>
+        <v>0.362215</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.820129</v>
+        <v>0.819118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.46942</v>
+        <v>0.347352</v>
       </c>
       <c r="D47" t="n">
-        <v>0.365257</v>
+        <v>0.365096</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.83039</v>
+        <v>0.8243819999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.482697</v>
+        <v>0.352356</v>
       </c>
       <c r="D48" t="n">
-        <v>0.377878</v>
+        <v>0.371051</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.832611</v>
+        <v>0.8289260000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.487117</v>
+        <v>0.360421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38257</v>
+        <v>0.37686</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.839155</v>
+        <v>0.8368679999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.511369</v>
+        <v>0.382141</v>
       </c>
       <c r="D50" t="n">
-        <v>0.40594</v>
+        <v>0.400621</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.854557</v>
+        <v>0.846445</v>
       </c>
       <c r="C51" t="n">
-        <v>0.522142</v>
+        <v>0.389088</v>
       </c>
       <c r="D51" t="n">
-        <v>0.412971</v>
+        <v>0.403842</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.871575</v>
+        <v>0.856003</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5477379999999999</v>
+        <v>0.403472</v>
       </c>
       <c r="D52" t="n">
-        <v>0.434241</v>
+        <v>0.415945</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.884655</v>
+        <v>0.865107</v>
       </c>
       <c r="C53" t="n">
-        <v>0.566184</v>
+        <v>0.431879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.44717</v>
+        <v>0.436614</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.905148</v>
+        <v>0.881327</v>
       </c>
       <c r="C54" t="n">
-        <v>0.596317</v>
+        <v>0.442003</v>
       </c>
       <c r="D54" t="n">
-        <v>0.463489</v>
+        <v>0.434986</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.915485</v>
+        <v>0.88568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6112300000000001</v>
+        <v>0.456088</v>
       </c>
       <c r="D55" t="n">
-        <v>0.480657</v>
+        <v>0.45383</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.928893</v>
+        <v>0.9103290000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.633038</v>
+        <v>0.486528</v>
       </c>
       <c r="D56" t="n">
-        <v>0.493989</v>
+        <v>0.473617</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.94785</v>
+        <v>0.932577</v>
       </c>
       <c r="C57" t="n">
-        <v>0.661198</v>
+        <v>0.522787</v>
       </c>
       <c r="D57" t="n">
-        <v>0.51375</v>
+        <v>0.499092</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.971132</v>
+        <v>0.976223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.693224</v>
+        <v>0.570821</v>
       </c>
       <c r="D58" t="n">
-        <v>0.536254</v>
+        <v>0.539654</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.00182</v>
+        <v>1.00561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.730961</v>
+        <v>0.614418</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565016</v>
+        <v>0.574408</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.03681</v>
+        <v>1.04193</v>
       </c>
       <c r="C60" t="n">
-        <v>0.776635</v>
+        <v>0.660299</v>
       </c>
       <c r="D60" t="n">
-        <v>0.594588</v>
+        <v>0.605192</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.07888</v>
+        <v>1.09175</v>
       </c>
       <c r="C61" t="n">
-        <v>0.821492</v>
+        <v>0.716728</v>
       </c>
       <c r="D61" t="n">
-        <v>0.635731</v>
+        <v>0.639701</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.11456</v>
+        <v>1.12286</v>
       </c>
       <c r="C62" t="n">
-        <v>0.872862</v>
+        <v>0.7569900000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.665113</v>
+        <v>0.678115</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15295</v>
+        <v>1.17842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.918976</v>
+        <v>0.808984</v>
       </c>
       <c r="D63" t="n">
-        <v>0.697529</v>
+        <v>0.7117869999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19565</v>
+        <v>1.21612</v>
       </c>
       <c r="C64" t="n">
-        <v>1.01767</v>
+        <v>0.902448</v>
       </c>
       <c r="D64" t="n">
-        <v>0.788982</v>
+        <v>0.805674</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.28729</v>
+        <v>1.29863</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06282</v>
+        <v>0.9504089999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.813887</v>
+        <v>0.828956</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.34073</v>
+        <v>1.35603</v>
       </c>
       <c r="C66" t="n">
-        <v>1.11407</v>
+        <v>0.993391</v>
       </c>
       <c r="D66" t="n">
-        <v>0.847828</v>
+        <v>0.861147</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39142</v>
+        <v>1.40253</v>
       </c>
       <c r="C67" t="n">
-        <v>1.16527</v>
+        <v>1.02886</v>
       </c>
       <c r="D67" t="n">
-        <v>0.882458</v>
+        <v>0.888726</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.44388</v>
+        <v>1.43743</v>
       </c>
       <c r="C68" t="n">
-        <v>1.21672</v>
+        <v>1.0742</v>
       </c>
       <c r="D68" t="n">
-        <v>0.918716</v>
+        <v>0.925527</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.49212</v>
+        <v>1.47883</v>
       </c>
       <c r="C69" t="n">
-        <v>1.25621</v>
+        <v>1.11042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.949076</v>
+        <v>0.949498</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.53117</v>
+        <v>1.52715</v>
       </c>
       <c r="C70" t="n">
-        <v>1.29704</v>
+        <v>1.14587</v>
       </c>
       <c r="D70" t="n">
-        <v>0.978482</v>
+        <v>0.976121</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.57607</v>
+        <v>1.5695</v>
       </c>
       <c r="C71" t="n">
-        <v>1.33641</v>
+        <v>1.18216</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01081</v>
+        <v>1.0065</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.62831</v>
+        <v>1.61011</v>
       </c>
       <c r="C72" t="n">
-        <v>1.37363</v>
+        <v>1.21429</v>
       </c>
       <c r="D72" t="n">
-        <v>1.04079</v>
+        <v>1.03792</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.66144</v>
+        <v>1.65273</v>
       </c>
       <c r="C73" t="n">
-        <v>1.406</v>
+        <v>1.24478</v>
       </c>
       <c r="D73" t="n">
-        <v>1.06801</v>
+        <v>1.06585</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.70072</v>
+        <v>1.69166</v>
       </c>
       <c r="C74" t="n">
-        <v>1.43731</v>
+        <v>1.27393</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09366</v>
+        <v>1.09086</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.74095</v>
+        <v>1.72861</v>
       </c>
       <c r="C75" t="n">
-        <v>1.46675</v>
+        <v>1.30198</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1198</v>
+        <v>1.1138</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.77921</v>
+        <v>1.7717</v>
       </c>
       <c r="C76" t="n">
-        <v>1.49454</v>
+        <v>1.33432</v>
       </c>
       <c r="D76" t="n">
-        <v>1.14645</v>
+        <v>1.13899</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.81483</v>
+        <v>1.79374</v>
       </c>
       <c r="C77" t="n">
-        <v>1.51812</v>
+        <v>1.34757</v>
       </c>
       <c r="D77" t="n">
-        <v>1.17194</v>
+        <v>1.15621</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.85519</v>
+        <v>1.83089</v>
       </c>
       <c r="C78" t="n">
-        <v>1.5835</v>
+        <v>1.41258</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24457</v>
+        <v>1.22552</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.94323</v>
+        <v>1.91998</v>
       </c>
       <c r="C79" t="n">
-        <v>1.60299</v>
+        <v>1.43424</v>
       </c>
       <c r="D79" t="n">
-        <v>1.26737</v>
+        <v>1.25922</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.96994</v>
+        <v>1.96273</v>
       </c>
       <c r="C80" t="n">
-        <v>1.62433</v>
+        <v>1.45572</v>
       </c>
       <c r="D80" t="n">
-        <v>1.28928</v>
+        <v>1.28189</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.00944</v>
+        <v>1.9966</v>
       </c>
       <c r="C81" t="n">
-        <v>1.64382</v>
+        <v>1.47785</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3132</v>
+        <v>1.30595</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02647</v>
+        <v>2.00751</v>
       </c>
       <c r="C82" t="n">
-        <v>1.66527</v>
+        <v>1.48764</v>
       </c>
       <c r="D82" t="n">
-        <v>1.33538</v>
+        <v>1.31742</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.0574</v>
+        <v>2.04684</v>
       </c>
       <c r="C83" t="n">
-        <v>1.68393</v>
+        <v>1.50508</v>
       </c>
       <c r="D83" t="n">
-        <v>1.3549</v>
+        <v>1.33377</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.07745</v>
+        <v>2.05358</v>
       </c>
       <c r="C84" t="n">
-        <v>1.69535</v>
+        <v>1.51672</v>
       </c>
       <c r="D84" t="n">
-        <v>1.36947</v>
+        <v>1.34717</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09165</v>
+        <v>2.08705</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70987</v>
+        <v>1.53421</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39148</v>
+        <v>1.37463</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.11089</v>
+        <v>2.09356</v>
       </c>
       <c r="C86" t="n">
-        <v>1.72298</v>
+        <v>1.55351</v>
       </c>
       <c r="D86" t="n">
-        <v>1.40861</v>
+        <v>1.3877</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1292</v>
+        <v>2.0999</v>
       </c>
       <c r="C87" t="n">
-        <v>1.74004</v>
+        <v>1.5652</v>
       </c>
       <c r="D87" t="n">
-        <v>1.4252</v>
+        <v>1.40336</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14927</v>
+        <v>2.12762</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7584</v>
+        <v>1.58162</v>
       </c>
       <c r="D88" t="n">
-        <v>1.44152</v>
+        <v>1.42313</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.16947</v>
+        <v>2.14156</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76112</v>
+        <v>1.59606</v>
       </c>
       <c r="D89" t="n">
-        <v>1.45741</v>
+        <v>1.44038</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.19124</v>
+        <v>2.16847</v>
       </c>
       <c r="C90" t="n">
-        <v>1.77201</v>
+        <v>1.61342</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47382</v>
+        <v>1.46014</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21928</v>
+        <v>2.1882</v>
       </c>
       <c r="C91" t="n">
-        <v>1.78234</v>
+        <v>1.62167</v>
       </c>
       <c r="D91" t="n">
-        <v>1.49187</v>
+        <v>1.47433</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.2388</v>
+        <v>2.20926</v>
       </c>
       <c r="C92" t="n">
-        <v>1.7897</v>
+        <v>1.64816</v>
       </c>
       <c r="D92" t="n">
-        <v>1.53406</v>
+        <v>1.51546</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.28374</v>
+        <v>2.253</v>
       </c>
       <c r="C93" t="n">
-        <v>1.79869</v>
+        <v>1.65134</v>
       </c>
       <c r="D93" t="n">
-        <v>1.54967</v>
+        <v>1.5309</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.30417</v>
+        <v>2.25953</v>
       </c>
       <c r="C94" t="n">
-        <v>1.80955</v>
+        <v>1.65514</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56378</v>
+        <v>1.54475</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.32466</v>
+        <v>2.28989</v>
       </c>
       <c r="C95" t="n">
-        <v>1.81531</v>
+        <v>1.67409</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57658</v>
+        <v>1.55739</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.34348</v>
+        <v>2.30561</v>
       </c>
       <c r="C96" t="n">
-        <v>1.82678</v>
+        <v>1.67248</v>
       </c>
       <c r="D96" t="n">
-        <v>1.59115</v>
+        <v>1.56917</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.35839</v>
+        <v>2.3233</v>
       </c>
       <c r="C97" t="n">
-        <v>1.83608</v>
+        <v>1.67721</v>
       </c>
       <c r="D97" t="n">
-        <v>1.6</v>
+        <v>1.5804</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.38071</v>
+        <v>2.34454</v>
       </c>
       <c r="C98" t="n">
-        <v>1.84167</v>
+        <v>1.69586</v>
       </c>
       <c r="D98" t="n">
-        <v>1.61419</v>
+        <v>1.58715</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.3958</v>
+        <v>2.35075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.85022</v>
+        <v>1.70049</v>
       </c>
       <c r="D99" t="n">
-        <v>1.62371</v>
+        <v>1.59571</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.41143</v>
+        <v>2.3703</v>
       </c>
       <c r="C100" t="n">
-        <v>1.8669</v>
+        <v>1.71153</v>
       </c>
       <c r="D100" t="n">
-        <v>1.63438</v>
+        <v>1.61014</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.4265</v>
+        <v>2.3836</v>
       </c>
       <c r="C101" t="n">
-        <v>1.8747</v>
+        <v>1.72197</v>
       </c>
       <c r="D101" t="n">
-        <v>1.64503</v>
+        <v>1.62646</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.4441</v>
+        <v>2.40663</v>
       </c>
       <c r="C102" t="n">
-        <v>1.88382</v>
+        <v>1.72257</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65679</v>
+        <v>1.6349</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.46087</v>
+        <v>2.41918</v>
       </c>
       <c r="C103" t="n">
-        <v>1.89704</v>
+        <v>1.7395</v>
       </c>
       <c r="D103" t="n">
-        <v>1.66384</v>
+        <v>1.64132</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.4741</v>
+        <v>2.43535</v>
       </c>
       <c r="C104" t="n">
-        <v>1.90429</v>
+        <v>1.73428</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6736</v>
+        <v>1.65212</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.48998</v>
+        <v>2.44921</v>
       </c>
       <c r="C105" t="n">
-        <v>1.90619</v>
+        <v>1.75311</v>
       </c>
       <c r="D105" t="n">
-        <v>1.6845</v>
+        <v>1.66264</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.50614</v>
+        <v>2.46529</v>
       </c>
       <c r="C106" t="n">
-        <v>1.92294</v>
+        <v>1.74562</v>
       </c>
       <c r="D106" t="n">
-        <v>1.69568</v>
+        <v>1.67185</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.52381</v>
+        <v>2.48489</v>
       </c>
       <c r="C107" t="n">
-        <v>1.91414</v>
+        <v>1.75442</v>
       </c>
       <c r="D107" t="n">
-        <v>1.71809</v>
+        <v>1.69771</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.53609</v>
+        <v>2.49827</v>
       </c>
       <c r="C108" t="n">
-        <v>1.92272</v>
+        <v>1.76402</v>
       </c>
       <c r="D108" t="n">
-        <v>1.7276</v>
+        <v>1.70656</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.54796</v>
+        <v>2.51333</v>
       </c>
       <c r="C109" t="n">
-        <v>1.93292</v>
+        <v>1.77554</v>
       </c>
       <c r="D109" t="n">
-        <v>1.7367</v>
+        <v>1.71496</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.56341</v>
+        <v>2.52151</v>
       </c>
       <c r="C110" t="n">
-        <v>1.94156</v>
+        <v>1.78306</v>
       </c>
       <c r="D110" t="n">
-        <v>1.74715</v>
+        <v>1.72299</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.57888</v>
+        <v>2.53267</v>
       </c>
       <c r="C111" t="n">
-        <v>1.95345</v>
+        <v>1.79131</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7567</v>
+        <v>1.7308</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58883</v>
+        <v>2.54663</v>
       </c>
       <c r="C112" t="n">
-        <v>1.95195</v>
+        <v>1.79553</v>
       </c>
       <c r="D112" t="n">
-        <v>1.76336</v>
+        <v>1.73791</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.6016</v>
+        <v>2.56081</v>
       </c>
       <c r="C113" t="n">
-        <v>1.96189</v>
+        <v>1.77868</v>
       </c>
       <c r="D113" t="n">
-        <v>1.76899</v>
+        <v>1.74452</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.61095</v>
+        <v>2.57042</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97147</v>
+        <v>1.80015</v>
       </c>
       <c r="D114" t="n">
-        <v>1.7756</v>
+        <v>1.75198</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.62059</v>
+        <v>2.57818</v>
       </c>
       <c r="C115" t="n">
-        <v>1.976</v>
+        <v>1.80811</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78253</v>
+        <v>1.7575</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62892</v>
+        <v>2.58762</v>
       </c>
       <c r="C116" t="n">
-        <v>1.99618</v>
+        <v>1.81136</v>
       </c>
       <c r="D116" t="n">
-        <v>1.78704</v>
+        <v>1.76386</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.64037</v>
+        <v>2.5999</v>
       </c>
       <c r="C117" t="n">
-        <v>1.98423</v>
+        <v>1.81417</v>
       </c>
       <c r="D117" t="n">
-        <v>1.79357</v>
+        <v>1.7714</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.65162</v>
+        <v>2.61049</v>
       </c>
       <c r="C118" t="n">
-        <v>1.99597</v>
+        <v>1.82828</v>
       </c>
       <c r="D118" t="n">
-        <v>1.80083</v>
+        <v>1.77674</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.66175</v>
+        <v>2.62174</v>
       </c>
       <c r="C119" t="n">
-        <v>1.99776</v>
+        <v>1.8339</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80818</v>
+        <v>1.78472</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.78178</v>
+        <v>0.77788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.418552</v>
+        <v>0.293913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.300947</v>
+        <v>0.297249</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.78452</v>
+        <v>0.780775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42258</v>
+        <v>0.300354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.304023</v>
+        <v>0.300202</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.788228</v>
+        <v>0.784203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.426507</v>
+        <v>0.303347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.307755</v>
+        <v>0.303185</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.790795</v>
+        <v>0.786923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.430296</v>
+        <v>0.306462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30955</v>
+        <v>0.305288</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.793915</v>
+        <v>0.7909310000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.433026</v>
+        <v>0.3114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.312578</v>
+        <v>0.309372</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.798082</v>
+        <v>0.7935950000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.440172</v>
+        <v>0.31345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.318218</v>
+        <v>0.313766</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7985719999999999</v>
+        <v>0.794644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443813</v>
+        <v>0.315913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.319802</v>
+        <v>0.314874</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.803191</v>
+        <v>0.800183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.444374</v>
+        <v>0.322691</v>
       </c>
       <c r="D9" t="n">
-        <v>0.322929</v>
+        <v>0.318826</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.807105</v>
+        <v>0.804748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.452529</v>
+        <v>0.328052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326401</v>
+        <v>0.322357</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.809355</v>
+        <v>0.805994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.437099</v>
+        <v>0.313354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3195</v>
+        <v>0.317071</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.796086</v>
+        <v>0.793564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.442542</v>
+        <v>0.318457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.323229</v>
+        <v>0.321299</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.79857</v>
+        <v>0.7968460000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.445258</v>
+        <v>0.320106</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325982</v>
+        <v>0.32419</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.801604</v>
+        <v>0.799871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.447873</v>
+        <v>0.323614</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327831</v>
+        <v>0.326438</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8040890000000001</v>
+        <v>0.802102</v>
       </c>
       <c r="C15" t="n">
-        <v>0.452057</v>
+        <v>0.325111</v>
       </c>
       <c r="D15" t="n">
-        <v>0.329757</v>
+        <v>0.327637</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805354</v>
+        <v>0.803692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453562</v>
+        <v>0.32846</v>
       </c>
       <c r="D16" t="n">
-        <v>0.332829</v>
+        <v>0.330708</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.805979</v>
+        <v>0.804161</v>
       </c>
       <c r="C17" t="n">
-        <v>0.458316</v>
+        <v>0.330385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.33463</v>
+        <v>0.332618</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.810764</v>
+        <v>0.809182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.459996</v>
+        <v>0.335276</v>
       </c>
       <c r="D18" t="n">
-        <v>0.337336</v>
+        <v>0.335906</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.810654</v>
+        <v>0.809732</v>
       </c>
       <c r="C19" t="n">
-        <v>0.463008</v>
+        <v>0.33735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.338508</v>
+        <v>0.337514</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.816042</v>
+        <v>0.814757</v>
       </c>
       <c r="C20" t="n">
-        <v>0.465785</v>
+        <v>0.340878</v>
       </c>
       <c r="D20" t="n">
-        <v>0.342212</v>
+        <v>0.340713</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.817298</v>
+        <v>0.8153359999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.467696</v>
+        <v>0.344534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.34456</v>
+        <v>0.34276</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.817267</v>
+        <v>0.816597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.472323</v>
+        <v>0.347331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.346448</v>
+        <v>0.344979</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.818533</v>
+        <v>0.818196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.476442</v>
+        <v>0.350243</v>
       </c>
       <c r="D23" t="n">
-        <v>0.349001</v>
+        <v>0.347847</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.820478</v>
+        <v>0.820088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.478189</v>
+        <v>0.352618</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352499</v>
+        <v>0.350856</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8249030000000001</v>
+        <v>0.82455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.481829</v>
+        <v>0.355758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.354115</v>
+        <v>0.352737</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.827847</v>
+        <v>0.826648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.463277</v>
+        <v>0.338271</v>
       </c>
       <c r="D26" t="n">
-        <v>0.345028</v>
+        <v>0.344662</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.817612</v>
+        <v>0.816672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466494</v>
+        <v>0.341841</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346939</v>
+        <v>0.346309</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.819759</v>
+        <v>0.818906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.466756</v>
+        <v>0.34254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.349142</v>
+        <v>0.347953</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.822298</v>
+        <v>0.821614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.467662</v>
+        <v>0.343971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.350459</v>
+        <v>0.349164</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.82256</v>
+        <v>0.822064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470471</v>
+        <v>0.345547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.352289</v>
+        <v>0.350917</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824982</v>
+        <v>0.82429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.473993</v>
+        <v>0.348289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.353895</v>
+        <v>0.352928</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.825338</v>
+        <v>0.825383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.475227</v>
+        <v>0.350651</v>
       </c>
       <c r="D32" t="n">
-        <v>0.355663</v>
+        <v>0.354995</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.827039</v>
+        <v>0.82669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.477672</v>
+        <v>0.352482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.357018</v>
+        <v>0.356088</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.829448</v>
+        <v>0.8291230000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.480829</v>
+        <v>0.354878</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359626</v>
+        <v>0.357955</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.830619</v>
+        <v>0.830322</v>
       </c>
       <c r="C35" t="n">
-        <v>0.483725</v>
+        <v>0.356944</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360708</v>
+        <v>0.359092</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.831206</v>
+        <v>0.8308219999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.485852</v>
+        <v>0.36047</v>
       </c>
       <c r="D36" t="n">
-        <v>0.362945</v>
+        <v>0.361624</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.833877</v>
+        <v>0.8337830000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.488878</v>
+        <v>0.361532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.364597</v>
+        <v>0.363266</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.837274</v>
+        <v>0.8371960000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.490861</v>
+        <v>0.365233</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367631</v>
+        <v>0.366114</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.836856</v>
+        <v>0.836741</v>
       </c>
       <c r="C39" t="n">
-        <v>0.494743</v>
+        <v>0.367593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.368485</v>
+        <v>0.367222</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.840676</v>
+        <v>0.84055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474288</v>
+        <v>0.348716</v>
       </c>
       <c r="D40" t="n">
-        <v>0.362822</v>
+        <v>0.362309</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.825439</v>
+        <v>0.82612</v>
       </c>
       <c r="C41" t="n">
-        <v>0.475456</v>
+        <v>0.350628</v>
       </c>
       <c r="D41" t="n">
-        <v>0.364161</v>
+        <v>0.363979</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.826256</v>
+        <v>0.826695</v>
       </c>
       <c r="C42" t="n">
-        <v>0.476181</v>
+        <v>0.352479</v>
       </c>
       <c r="D42" t="n">
-        <v>0.365001</v>
+        <v>0.364519</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.828774</v>
+        <v>0.829155</v>
       </c>
       <c r="C43" t="n">
-        <v>0.479836</v>
+        <v>0.354069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.366882</v>
+        <v>0.366401</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.830559</v>
+        <v>0.831064</v>
       </c>
       <c r="C44" t="n">
-        <v>0.481972</v>
+        <v>0.356621</v>
       </c>
       <c r="D44" t="n">
-        <v>0.368354</v>
+        <v>0.368532</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.831873</v>
+        <v>0.832607</v>
       </c>
       <c r="C45" t="n">
-        <v>0.483886</v>
+        <v>0.358959</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370129</v>
+        <v>0.370263</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.833036</v>
+        <v>0.834465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.486872</v>
+        <v>0.363601</v>
       </c>
       <c r="D46" t="n">
-        <v>0.371724</v>
+        <v>0.37354</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.83612</v>
+        <v>0.836239</v>
       </c>
       <c r="C47" t="n">
-        <v>0.492018</v>
+        <v>0.365707</v>
       </c>
       <c r="D47" t="n">
-        <v>0.375175</v>
+        <v>0.375084</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.846079</v>
+        <v>0.83861</v>
       </c>
       <c r="C48" t="n">
-        <v>0.509482</v>
+        <v>0.36912</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388645</v>
+        <v>0.377465</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.849851</v>
+        <v>0.8406979999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.512329</v>
+        <v>0.373503</v>
       </c>
       <c r="D49" t="n">
-        <v>0.391897</v>
+        <v>0.381127</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.851426</v>
+        <v>0.847135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.516442</v>
+        <v>0.382615</v>
       </c>
       <c r="D50" t="n">
-        <v>0.394285</v>
+        <v>0.387964</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.85667</v>
+        <v>0.8512189999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.523014</v>
+        <v>0.389865</v>
       </c>
       <c r="D51" t="n">
-        <v>0.40069</v>
+        <v>0.393422</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.864843</v>
+        <v>0.862013</v>
       </c>
       <c r="C52" t="n">
-        <v>0.538366</v>
+        <v>0.405523</v>
       </c>
       <c r="D52" t="n">
-        <v>0.412659</v>
+        <v>0.407293</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.879762</v>
+        <v>0.862303</v>
       </c>
       <c r="C53" t="n">
-        <v>0.55875</v>
+        <v>0.408072</v>
       </c>
       <c r="D53" t="n">
-        <v>0.428631</v>
+        <v>0.406778</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.891299</v>
+        <v>0.878504</v>
       </c>
       <c r="C54" t="n">
-        <v>0.543888</v>
+        <v>0.417927</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428168</v>
+        <v>0.425501</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.882265</v>
+        <v>0.882817</v>
       </c>
       <c r="C55" t="n">
-        <v>0.560387</v>
+        <v>0.433959</v>
       </c>
       <c r="D55" t="n">
-        <v>0.440065</v>
+        <v>0.436338</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.899176</v>
+        <v>0.883131</v>
       </c>
       <c r="C56" t="n">
-        <v>0.582976</v>
+        <v>0.436464</v>
       </c>
       <c r="D56" t="n">
-        <v>0.458314</v>
+        <v>0.434295</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.917471</v>
+        <v>0.905251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.61048</v>
+        <v>0.465341</v>
       </c>
       <c r="D57" t="n">
-        <v>0.477255</v>
+        <v>0.459166</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.941771</v>
+        <v>0.913991</v>
       </c>
       <c r="C58" t="n">
-        <v>0.64124</v>
+        <v>0.482017</v>
       </c>
       <c r="D58" t="n">
-        <v>0.500532</v>
+        <v>0.468346</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.97551</v>
+        <v>0.943721</v>
       </c>
       <c r="C59" t="n">
-        <v>0.684916</v>
+        <v>0.5229549999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.533351</v>
+        <v>0.500516</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.00235</v>
+        <v>0.977026</v>
       </c>
       <c r="C60" t="n">
-        <v>0.72082</v>
+        <v>0.562914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558215</v>
+        <v>0.5318310000000001</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.0456</v>
+        <v>1.01967</v>
       </c>
       <c r="C61" t="n">
-        <v>0.772989</v>
+        <v>0.614056</v>
       </c>
       <c r="D61" t="n">
-        <v>0.599597</v>
+        <v>0.573251</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08065</v>
+        <v>1.05947</v>
       </c>
       <c r="C62" t="n">
-        <v>0.813647</v>
+        <v>0.66801</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6289130000000001</v>
+        <v>0.6085739999999999</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.12021</v>
+        <v>1.08577</v>
       </c>
       <c r="C63" t="n">
-        <v>0.861868</v>
+        <v>0.699807</v>
       </c>
       <c r="D63" t="n">
-        <v>0.659189</v>
+        <v>0.63327</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.16444</v>
+        <v>1.14936</v>
       </c>
       <c r="C64" t="n">
-        <v>0.910004</v>
+        <v>0.76601</v>
       </c>
       <c r="D64" t="n">
-        <v>0.695926</v>
+        <v>0.6803360000000001</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.20957</v>
+        <v>1.18579</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9658870000000001</v>
+        <v>0.809976</v>
       </c>
       <c r="D65" t="n">
-        <v>0.731535</v>
+        <v>0.71088</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.2492</v>
+        <v>1.23472</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00858</v>
+        <v>0.859711</v>
       </c>
       <c r="D66" t="n">
-        <v>0.757857</v>
+        <v>0.746212</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.30015</v>
+        <v>1.28238</v>
       </c>
       <c r="C67" t="n">
-        <v>1.06493</v>
+        <v>0.912327</v>
       </c>
       <c r="D67" t="n">
-        <v>0.800254</v>
+        <v>0.781114</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.35189</v>
+        <v>1.33465</v>
       </c>
       <c r="C68" t="n">
-        <v>1.08473</v>
+        <v>0.942102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8364740000000001</v>
+        <v>0.823218</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.38534</v>
+        <v>1.36599</v>
       </c>
       <c r="C69" t="n">
-        <v>1.14581</v>
+        <v>0.995493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.871892</v>
+        <v>0.857005</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.438</v>
+        <v>1.41957</v>
       </c>
       <c r="C70" t="n">
-        <v>1.19711</v>
+        <v>1.03757</v>
       </c>
       <c r="D70" t="n">
-        <v>0.904003</v>
+        <v>0.88944</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.48953</v>
+        <v>1.46998</v>
       </c>
       <c r="C71" t="n">
-        <v>1.24874</v>
+        <v>1.07947</v>
       </c>
       <c r="D71" t="n">
-        <v>0.939248</v>
+        <v>0.922068</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.54621</v>
+        <v>1.52074</v>
       </c>
       <c r="C72" t="n">
-        <v>1.29586</v>
+        <v>1.12242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9737440000000001</v>
+        <v>0.9515400000000001</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.58967</v>
+        <v>1.56803</v>
       </c>
       <c r="C73" t="n">
-        <v>1.33817</v>
+        <v>1.16641</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00227</v>
+        <v>0.988173</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.63495</v>
+        <v>1.61442</v>
       </c>
       <c r="C74" t="n">
-        <v>1.3834</v>
+        <v>1.20507</v>
       </c>
       <c r="D74" t="n">
-        <v>1.03475</v>
+        <v>1.01481</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.68518</v>
+        <v>1.66526</v>
       </c>
       <c r="C75" t="n">
-        <v>1.42354</v>
+        <v>1.24447</v>
       </c>
       <c r="D75" t="n">
-        <v>1.06508</v>
+        <v>1.04375</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.72929</v>
+        <v>1.70621</v>
       </c>
       <c r="C76" t="n">
-        <v>1.46532</v>
+        <v>1.28104</v>
       </c>
       <c r="D76" t="n">
-        <v>1.09282</v>
+        <v>1.07611</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.77548</v>
+        <v>1.75289</v>
       </c>
       <c r="C77" t="n">
-        <v>1.5036</v>
+        <v>1.31378</v>
       </c>
       <c r="D77" t="n">
-        <v>1.12169</v>
+        <v>1.10536</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.82062</v>
+        <v>1.79563</v>
       </c>
       <c r="C78" t="n">
-        <v>1.54011</v>
+        <v>1.34767</v>
       </c>
       <c r="D78" t="n">
-        <v>1.15255</v>
+        <v>1.13559</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.86363</v>
+        <v>1.84315</v>
       </c>
       <c r="C79" t="n">
-        <v>1.58148</v>
+        <v>1.38368</v>
       </c>
       <c r="D79" t="n">
-        <v>1.18001</v>
+        <v>1.166</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.90255</v>
+        <v>1.88215</v>
       </c>
       <c r="C80" t="n">
-        <v>1.61627</v>
+        <v>1.41804</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20654</v>
+        <v>1.19354</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.94906</v>
+        <v>1.92769</v>
       </c>
       <c r="C81" t="n">
-        <v>1.65225</v>
+        <v>1.45202</v>
       </c>
       <c r="D81" t="n">
-        <v>1.23453</v>
+        <v>1.21954</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.99059</v>
+        <v>1.96653</v>
       </c>
       <c r="C82" t="n">
-        <v>1.68815</v>
+        <v>1.48251</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26334</v>
+        <v>1.24915</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.03564</v>
+        <v>2.01286</v>
       </c>
       <c r="C83" t="n">
-        <v>1.66012</v>
+        <v>1.47309</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28551</v>
+        <v>1.27326</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.03288</v>
+        <v>2.01009</v>
       </c>
       <c r="C84" t="n">
-        <v>1.68848</v>
+        <v>1.49489</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30912</v>
+        <v>1.2941</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.06743</v>
+        <v>2.04235</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71371</v>
+        <v>1.52091</v>
       </c>
       <c r="D85" t="n">
-        <v>1.33288</v>
+        <v>1.31857</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.09407</v>
+        <v>2.08288</v>
       </c>
       <c r="C86" t="n">
-        <v>1.74063</v>
+        <v>1.54416</v>
       </c>
       <c r="D86" t="n">
-        <v>1.35446</v>
+        <v>1.34132</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12418</v>
+        <v>2.10798</v>
       </c>
       <c r="C87" t="n">
-        <v>1.76544</v>
+        <v>1.56752</v>
       </c>
       <c r="D87" t="n">
-        <v>1.3733</v>
+        <v>1.35992</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.13981</v>
+        <v>2.12534</v>
       </c>
       <c r="C88" t="n">
-        <v>1.79052</v>
+        <v>1.58962</v>
       </c>
       <c r="D88" t="n">
-        <v>1.39744</v>
+        <v>1.37842</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.17068</v>
+        <v>2.14808</v>
       </c>
       <c r="C89" t="n">
-        <v>1.80432</v>
+        <v>1.61447</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4191</v>
+        <v>1.39923</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.20169</v>
+        <v>2.18244</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83478</v>
+        <v>1.63676</v>
       </c>
       <c r="D90" t="n">
-        <v>1.43898</v>
+        <v>1.41938</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21942</v>
+        <v>2.19996</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85565</v>
+        <v>1.66016</v>
       </c>
       <c r="D91" t="n">
-        <v>1.46124</v>
+        <v>1.44102</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.24394</v>
+        <v>2.21885</v>
       </c>
       <c r="C92" t="n">
-        <v>1.87086</v>
+        <v>1.68508</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48091</v>
+        <v>1.45969</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.27132</v>
+        <v>2.24284</v>
       </c>
       <c r="C93" t="n">
-        <v>1.89889</v>
+        <v>1.70938</v>
       </c>
       <c r="D93" t="n">
-        <v>1.50182</v>
+        <v>1.48073</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.30385</v>
+        <v>2.27255</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91907</v>
+        <v>1.73063</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52208</v>
+        <v>1.50306</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.32897</v>
+        <v>2.30418</v>
       </c>
       <c r="C95" t="n">
-        <v>1.93567</v>
+        <v>1.76091</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54182</v>
+        <v>1.52456</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.35636</v>
+        <v>2.33259</v>
       </c>
       <c r="C96" t="n">
-        <v>1.96838</v>
+        <v>1.78706</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56275</v>
+        <v>1.54412</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.38658</v>
+        <v>2.3568</v>
       </c>
       <c r="C97" t="n">
-        <v>1.88247</v>
+        <v>1.72855</v>
       </c>
       <c r="D97" t="n">
-        <v>1.57093</v>
+        <v>1.55137</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.3639</v>
+        <v>2.33262</v>
       </c>
       <c r="C98" t="n">
-        <v>1.90133</v>
+        <v>1.73815</v>
       </c>
       <c r="D98" t="n">
-        <v>1.58621</v>
+        <v>1.56941</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.38687</v>
+        <v>2.35839</v>
       </c>
       <c r="C99" t="n">
-        <v>1.91867</v>
+        <v>1.75974</v>
       </c>
       <c r="D99" t="n">
-        <v>1.60169</v>
+        <v>1.58296</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.41204</v>
+        <v>2.37937</v>
       </c>
       <c r="C100" t="n">
-        <v>1.93552</v>
+        <v>1.77526</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6192</v>
+        <v>1.59868</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.43281</v>
+        <v>2.40124</v>
       </c>
       <c r="C101" t="n">
-        <v>1.95018</v>
+        <v>1.79155</v>
       </c>
       <c r="D101" t="n">
-        <v>1.63433</v>
+        <v>1.61514</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.45781</v>
+        <v>2.41894</v>
       </c>
       <c r="C102" t="n">
-        <v>1.96897</v>
+        <v>1.81123</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65038</v>
+        <v>1.62783</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.47831</v>
+        <v>2.44465</v>
       </c>
       <c r="C103" t="n">
-        <v>1.98929</v>
+        <v>1.81699</v>
       </c>
       <c r="D103" t="n">
-        <v>1.66342</v>
+        <v>1.64013</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.5061</v>
+        <v>2.46706</v>
       </c>
       <c r="C104" t="n">
-        <v>2.01092</v>
+        <v>1.84721</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68164</v>
+        <v>1.65863</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.52782</v>
+        <v>2.49268</v>
       </c>
       <c r="C105" t="n">
-        <v>2.02973</v>
+        <v>1.86162</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69851</v>
+        <v>1.67305</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.55369</v>
+        <v>2.51417</v>
       </c>
       <c r="C106" t="n">
-        <v>2.05692</v>
+        <v>1.87987</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71419</v>
+        <v>1.6876</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.57809</v>
+        <v>2.53445</v>
       </c>
       <c r="C107" t="n">
-        <v>2.08102</v>
+        <v>1.90117</v>
       </c>
       <c r="D107" t="n">
-        <v>1.73057</v>
+        <v>1.70392</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.60301</v>
+        <v>2.56264</v>
       </c>
       <c r="C108" t="n">
-        <v>2.0957</v>
+        <v>1.91407</v>
       </c>
       <c r="D108" t="n">
-        <v>1.74681</v>
+        <v>1.71962</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.62296</v>
+        <v>2.58452</v>
       </c>
       <c r="C109" t="n">
-        <v>2.11937</v>
+        <v>1.93307</v>
       </c>
       <c r="D109" t="n">
-        <v>1.76227</v>
+        <v>1.73654</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.65187</v>
+        <v>2.60941</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14067</v>
+        <v>1.96013</v>
       </c>
       <c r="D110" t="n">
-        <v>1.77598</v>
+        <v>1.74749</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.67758</v>
+        <v>2.63279</v>
       </c>
       <c r="C111" t="n">
-        <v>2.03703</v>
+        <v>1.84868</v>
       </c>
       <c r="D111" t="n">
-        <v>1.76429</v>
+        <v>1.73728</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.62594</v>
+        <v>2.58697</v>
       </c>
       <c r="C112" t="n">
-        <v>2.04641</v>
+        <v>1.86524</v>
       </c>
       <c r="D112" t="n">
-        <v>1.77628</v>
+        <v>1.74737</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.6438</v>
+        <v>2.60402</v>
       </c>
       <c r="C113" t="n">
-        <v>2.05437</v>
+        <v>1.88234</v>
       </c>
       <c r="D113" t="n">
-        <v>1.78456</v>
+        <v>1.75924</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.66068</v>
+        <v>2.62261</v>
       </c>
       <c r="C114" t="n">
-        <v>2.06888</v>
+        <v>1.90442</v>
       </c>
       <c r="D114" t="n">
-        <v>1.79896</v>
+        <v>1.76981</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.67798</v>
+        <v>2.64039</v>
       </c>
       <c r="C115" t="n">
-        <v>2.08988</v>
+        <v>1.91293</v>
       </c>
       <c r="D115" t="n">
-        <v>1.80915</v>
+        <v>1.78297</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.69604</v>
+        <v>2.65593</v>
       </c>
       <c r="C116" t="n">
-        <v>2.10269</v>
+        <v>1.92935</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82073</v>
+        <v>1.79589</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.71512</v>
+        <v>2.67238</v>
       </c>
       <c r="C117" t="n">
-        <v>2.12184</v>
+        <v>1.94472</v>
       </c>
       <c r="D117" t="n">
-        <v>1.83248</v>
+        <v>1.80554</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.72993</v>
+        <v>2.68914</v>
       </c>
       <c r="C118" t="n">
-        <v>2.1352</v>
+        <v>1.94933</v>
       </c>
       <c r="D118" t="n">
-        <v>1.84298</v>
+        <v>1.81721</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.74912</v>
+        <v>2.70759</v>
       </c>
       <c r="C119" t="n">
-        <v>2.15861</v>
+        <v>1.97629</v>
       </c>
       <c r="D119" t="n">
-        <v>1.85495</v>
+        <v>1.82909</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure by key.xlsx
+++ b/clang_libcpp/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7704299999999999</v>
+        <v>0.773011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288703</v>
+        <v>0.290225</v>
       </c>
       <c r="D2" t="n">
-        <v>0.297062</v>
+        <v>0.300933</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.769846</v>
+        <v>0.774827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.291455</v>
+        <v>0.292363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29832</v>
+        <v>0.301945</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.773844</v>
+        <v>0.77861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.294907</v>
+        <v>0.296093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.301263</v>
+        <v>0.305759</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.777595</v>
+        <v>0.7799779999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.295345</v>
+        <v>0.295854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305101</v>
+        <v>0.307523</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.777348</v>
+        <v>0.781968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.297605</v>
+        <v>0.299553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.30543</v>
+        <v>0.308976</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.781456</v>
+        <v>0.78413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301839</v>
+        <v>0.302122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.314776</v>
+        <v>0.31573</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.777282</v>
+        <v>0.778931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.302716</v>
+        <v>0.303228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315612</v>
+        <v>0.31681</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.779489</v>
+        <v>0.781647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304647</v>
+        <v>0.305467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317721</v>
+        <v>0.318798</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.781847</v>
+        <v>0.783065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.306758</v>
+        <v>0.306567</v>
       </c>
       <c r="D10" t="n">
-        <v>0.319769</v>
+        <v>0.321079</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7825260000000001</v>
+        <v>0.784483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.307957</v>
+        <v>0.308234</v>
       </c>
       <c r="D11" t="n">
-        <v>0.321565</v>
+        <v>0.322196</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.785372</v>
+        <v>0.786552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.309813</v>
+        <v>0.309842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.323278</v>
+        <v>0.323625</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.787595</v>
+        <v>0.788053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311465</v>
+        <v>0.311445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.324517</v>
+        <v>0.325213</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.789669</v>
+        <v>0.790085</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313768</v>
+        <v>0.313198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327325</v>
+        <v>0.327425</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.790767</v>
+        <v>0.791717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.314629</v>
+        <v>0.313957</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328564</v>
+        <v>0.32946</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.792013</v>
+        <v>0.793852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.315269</v>
+        <v>0.314607</v>
       </c>
       <c r="D16" t="n">
-        <v>0.330055</v>
+        <v>0.330389</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.793346</v>
+        <v>0.794481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.317756</v>
+        <v>0.316821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3318</v>
+        <v>0.331873</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.794646</v>
+        <v>0.796744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.31887</v>
+        <v>0.31844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333901</v>
+        <v>0.334039</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.795882</v>
+        <v>0.796417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.320557</v>
+        <v>0.319987</v>
       </c>
       <c r="D19" t="n">
-        <v>0.33456</v>
+        <v>0.334742</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.798477</v>
+        <v>0.798289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.322776</v>
+        <v>0.3216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.33679</v>
+        <v>0.336332</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.799654</v>
+        <v>0.8008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.321758</v>
+        <v>0.320958</v>
       </c>
       <c r="D21" t="n">
-        <v>0.338227</v>
+        <v>0.338095</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.798679</v>
+        <v>0.799331</v>
       </c>
       <c r="C22" t="n">
-        <v>0.322216</v>
+        <v>0.321215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.338882</v>
+        <v>0.338768</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.799268</v>
+        <v>0.800242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.323334</v>
+        <v>0.322416</v>
       </c>
       <c r="D23" t="n">
-        <v>0.339932</v>
+        <v>0.339979</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.801096</v>
+        <v>0.80137</v>
       </c>
       <c r="C24" t="n">
-        <v>0.325298</v>
+        <v>0.323985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.341616</v>
+        <v>0.341818</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.802746</v>
+        <v>0.803582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.325504</v>
+        <v>0.324185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.34285</v>
+        <v>0.342823</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.803136</v>
+        <v>0.804273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325498</v>
+        <v>0.32434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343306</v>
+        <v>0.342981</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.804739</v>
+        <v>0.804881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.326664</v>
+        <v>0.325078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.344632</v>
+        <v>0.344192</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.805325</v>
+        <v>0.805936</v>
       </c>
       <c r="C28" t="n">
-        <v>0.327739</v>
+        <v>0.32605</v>
       </c>
       <c r="D28" t="n">
-        <v>0.345271</v>
+        <v>0.344813</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.807149</v>
+        <v>0.8078070000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.327902</v>
+        <v>0.326273</v>
       </c>
       <c r="D29" t="n">
-        <v>0.346387</v>
+        <v>0.345853</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.80788</v>
+        <v>0.808275</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328919</v>
+        <v>0.32727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.346882</v>
+        <v>0.346437</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.808771</v>
+        <v>0.809628</v>
       </c>
       <c r="C31" t="n">
-        <v>0.330182</v>
+        <v>0.328643</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347879</v>
+        <v>0.347277</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.809109</v>
+        <v>0.809806</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330916</v>
+        <v>0.329302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348931</v>
+        <v>0.348436</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.811105</v>
+        <v>0.811852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.331706</v>
+        <v>0.330381</v>
       </c>
       <c r="D33" t="n">
-        <v>0.349455</v>
+        <v>0.349469</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.811593</v>
+        <v>0.8121119999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.332667</v>
+        <v>0.331253</v>
       </c>
       <c r="D34" t="n">
-        <v>0.350662</v>
+        <v>0.350412</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.812399</v>
+        <v>0.8130309999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.330676</v>
+        <v>0.329478</v>
       </c>
       <c r="D35" t="n">
-        <v>0.351406</v>
+        <v>0.350913</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.805389</v>
+        <v>0.805929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.331265</v>
+        <v>0.329524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.352053</v>
+        <v>0.351451</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8066990000000001</v>
+        <v>0.807744</v>
       </c>
       <c r="C37" t="n">
-        <v>0.331041</v>
+        <v>0.329756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.351949</v>
+        <v>0.352173</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.807401</v>
+        <v>0.809122</v>
       </c>
       <c r="C38" t="n">
-        <v>0.332333</v>
+        <v>0.331819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353268</v>
+        <v>0.353235</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.808515</v>
+        <v>0.809701</v>
       </c>
       <c r="C39" t="n">
-        <v>0.333211</v>
+        <v>0.331695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.354695</v>
+        <v>0.354281</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.811854</v>
+        <v>0.810339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3345</v>
+        <v>0.332593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.355553</v>
+        <v>0.35478</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.811185</v>
+        <v>0.812141</v>
       </c>
       <c r="C41" t="n">
-        <v>0.334281</v>
+        <v>0.333171</v>
       </c>
       <c r="D41" t="n">
-        <v>0.356153</v>
+        <v>0.356229</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.813168</v>
+        <v>0.812558</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337984</v>
+        <v>0.334773</v>
       </c>
       <c r="D42" t="n">
-        <v>0.357651</v>
+        <v>0.35719</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.815804</v>
+        <v>0.813667</v>
       </c>
       <c r="C43" t="n">
-        <v>0.340506</v>
+        <v>0.33453</v>
       </c>
       <c r="D43" t="n">
-        <v>0.360286</v>
+        <v>0.357667</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.814497</v>
+        <v>0.813896</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338267</v>
+        <v>0.334947</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357781</v>
+        <v>0.357978</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.815406</v>
+        <v>0.8153860000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.341357</v>
+        <v>0.336591</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360779</v>
+        <v>0.359214</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.816487</v>
+        <v>0.816393</v>
       </c>
       <c r="C46" t="n">
-        <v>0.341695</v>
+        <v>0.338621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.362215</v>
+        <v>0.361112</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.819118</v>
+        <v>0.822204</v>
       </c>
       <c r="C47" t="n">
-        <v>0.347352</v>
+        <v>0.346096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.365096</v>
+        <v>0.367593</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8243819999999999</v>
+        <v>0.8260420000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.352356</v>
+        <v>0.350509</v>
       </c>
       <c r="D48" t="n">
-        <v>0.371051</v>
+        <v>0.371652</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8289260000000001</v>
+        <v>0.829604</v>
       </c>
       <c r="C49" t="n">
-        <v>0.360421</v>
+        <v>0.356562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.37686</v>
+        <v>0.377112</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8368679999999999</v>
+        <v>0.839888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.382141</v>
+        <v>0.380693</v>
       </c>
       <c r="D50" t="n">
-        <v>0.400621</v>
+        <v>0.402772</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.846445</v>
+        <v>0.8481379999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389088</v>
+        <v>0.388263</v>
       </c>
       <c r="D51" t="n">
-        <v>0.403842</v>
+        <v>0.407402</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.856003</v>
+        <v>0.855282</v>
       </c>
       <c r="C52" t="n">
-        <v>0.403472</v>
+        <v>0.399572</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415945</v>
+        <v>0.414793</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.865107</v>
+        <v>0.871167</v>
       </c>
       <c r="C53" t="n">
-        <v>0.431879</v>
+        <v>0.43165</v>
       </c>
       <c r="D53" t="n">
-        <v>0.436614</v>
+        <v>0.441927</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.881327</v>
+        <v>0.8940399999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.442003</v>
+        <v>0.451571</v>
       </c>
       <c r="D54" t="n">
-        <v>0.434986</v>
+        <v>0.456535</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.88568</v>
+        <v>0.912976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.456088</v>
+        <v>0.477914</v>
       </c>
       <c r="D55" t="n">
-        <v>0.45383</v>
+        <v>0.47801</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9103290000000001</v>
+        <v>0.934675</v>
       </c>
       <c r="C56" t="n">
-        <v>0.486528</v>
+        <v>0.503174</v>
       </c>
       <c r="D56" t="n">
-        <v>0.473617</v>
+        <v>0.498384</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.932577</v>
+        <v>0.961183</v>
       </c>
       <c r="C57" t="n">
-        <v>0.522787</v>
+        <v>0.540238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.499092</v>
+        <v>0.527208</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.976223</v>
+        <v>0.987919</v>
       </c>
       <c r="C58" t="n">
-        <v>0.570821</v>
+        <v>0.565537</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539654</v>
+        <v>0.543907</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.00561</v>
+        <v>1.0098</v>
       </c>
       <c r="C59" t="n">
-        <v>0.614418</v>
+        <v>0.6009060000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.574408</v>
+        <v>0.571796</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.04193</v>
+        <v>1.05016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.660299</v>
+        <v>0.650802</v>
       </c>
       <c r="D60" t="n">
-        <v>0.605192</v>
+        <v>0.602643</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.09175</v>
+        <v>1.07491</v>
       </c>
       <c r="C61" t="n">
-        <v>0.716728</v>
+        <v>0.684088</v>
       </c>
       <c r="D61" t="n">
-        <v>0.639701</v>
+        <v>0.632362</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.12286</v>
+        <v>1.10758</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7569900000000001</v>
+        <v>0.7217519999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.678115</v>
+        <v>0.6626649999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.17842</v>
+        <v>1.15178</v>
       </c>
       <c r="C63" t="n">
-        <v>0.808984</v>
+        <v>0.7736189999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7117869999999999</v>
+        <v>0.7001270000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.21612</v>
+        <v>1.19611</v>
       </c>
       <c r="C64" t="n">
-        <v>0.902448</v>
+        <v>0.879881</v>
       </c>
       <c r="D64" t="n">
-        <v>0.805674</v>
+        <v>0.798926</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.29863</v>
+        <v>1.28953</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9504089999999999</v>
+        <v>0.919638</v>
       </c>
       <c r="D65" t="n">
-        <v>0.828956</v>
+        <v>0.81842</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.35603</v>
+        <v>1.3401</v>
       </c>
       <c r="C66" t="n">
-        <v>0.993391</v>
+        <v>0.965679</v>
       </c>
       <c r="D66" t="n">
-        <v>0.861147</v>
+        <v>0.850647</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.40253</v>
+        <v>1.39243</v>
       </c>
       <c r="C67" t="n">
-        <v>1.02886</v>
+        <v>1.01493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.888726</v>
+        <v>0.890402</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.43743</v>
+        <v>1.44035</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0742</v>
+        <v>1.05939</v>
       </c>
       <c r="D68" t="n">
-        <v>0.925527</v>
+        <v>0.922382</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.47883</v>
+        <v>1.48928</v>
       </c>
       <c r="C69" t="n">
-        <v>1.11042</v>
+        <v>1.09913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.949498</v>
+        <v>0.952018</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.52715</v>
+        <v>1.5241</v>
       </c>
       <c r="C70" t="n">
-        <v>1.14587</v>
+        <v>1.13378</v>
       </c>
       <c r="D70" t="n">
-        <v>0.976121</v>
+        <v>0.979455</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.5695</v>
+        <v>1.56872</v>
       </c>
       <c r="C71" t="n">
-        <v>1.18216</v>
+        <v>1.16954</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0065</v>
+        <v>1.00857</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.61011</v>
+        <v>1.61676</v>
       </c>
       <c r="C72" t="n">
-        <v>1.21429</v>
+        <v>1.2079</v>
       </c>
       <c r="D72" t="n">
-        <v>1.03792</v>
+        <v>1.03742</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.65273</v>
+        <v>1.65594</v>
       </c>
       <c r="C73" t="n">
-        <v>1.24478</v>
+        <v>1.2379</v>
       </c>
       <c r="D73" t="n">
-        <v>1.06585</v>
+        <v>1.06902</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69166</v>
+        <v>1.7049</v>
       </c>
       <c r="C74" t="n">
-        <v>1.27393</v>
+        <v>1.2737</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09086</v>
+        <v>1.10141</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.72861</v>
+        <v>1.74494</v>
       </c>
       <c r="C75" t="n">
-        <v>1.30198</v>
+        <v>1.30128</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1138</v>
+        <v>1.12794</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.7717</v>
+        <v>1.77759</v>
       </c>
       <c r="C76" t="n">
-        <v>1.33432</v>
+        <v>1.32348</v>
       </c>
       <c r="D76" t="n">
-        <v>1.13899</v>
+        <v>1.15389</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.79374</v>
+        <v>1.81715</v>
       </c>
       <c r="C77" t="n">
-        <v>1.34757</v>
+        <v>1.35099</v>
       </c>
       <c r="D77" t="n">
-        <v>1.15621</v>
+        <v>1.17843</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.83089</v>
+        <v>1.85477</v>
       </c>
       <c r="C78" t="n">
-        <v>1.41258</v>
+        <v>1.41997</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22552</v>
+        <v>1.24891</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.91998</v>
+        <v>1.93181</v>
       </c>
       <c r="C79" t="n">
-        <v>1.43424</v>
+        <v>1.43425</v>
       </c>
       <c r="D79" t="n">
-        <v>1.25922</v>
+        <v>1.26687</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.96273</v>
+        <v>1.96832</v>
       </c>
       <c r="C80" t="n">
-        <v>1.45572</v>
+        <v>1.45398</v>
       </c>
       <c r="D80" t="n">
-        <v>1.28189</v>
+        <v>1.29289</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.9966</v>
+        <v>1.99641</v>
       </c>
       <c r="C81" t="n">
-        <v>1.47785</v>
+        <v>1.47607</v>
       </c>
       <c r="D81" t="n">
-        <v>1.30595</v>
+        <v>1.31708</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.00751</v>
+        <v>2.01878</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48764</v>
+        <v>1.4889</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31742</v>
+        <v>1.33828</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.04684</v>
+        <v>2.04733</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50508</v>
+        <v>1.50694</v>
       </c>
       <c r="D83" t="n">
-        <v>1.33377</v>
+        <v>1.35813</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.05358</v>
+        <v>2.06884</v>
       </c>
       <c r="C84" t="n">
-        <v>1.51672</v>
+        <v>1.52892</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34717</v>
+        <v>1.37883</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08705</v>
+        <v>2.07982</v>
       </c>
       <c r="C85" t="n">
-        <v>1.53421</v>
+        <v>1.54731</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37463</v>
+        <v>1.39949</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.09356</v>
+        <v>2.11147</v>
       </c>
       <c r="C86" t="n">
-        <v>1.55351</v>
+        <v>1.5611</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3877</v>
+        <v>1.41405</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0999</v>
+        <v>2.1232</v>
       </c>
       <c r="C87" t="n">
-        <v>1.5652</v>
+        <v>1.57389</v>
       </c>
       <c r="D87" t="n">
-        <v>1.40336</v>
+        <v>1.42658</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.12762</v>
+        <v>2.14099</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58162</v>
+        <v>1.58679</v>
       </c>
       <c r="D88" t="n">
-        <v>1.42313</v>
+        <v>1.44417</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.14156</v>
+        <v>2.16593</v>
       </c>
       <c r="C89" t="n">
-        <v>1.59606</v>
+        <v>1.6045</v>
       </c>
       <c r="D89" t="n">
-        <v>1.44038</v>
+        <v>1.46352</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.16847</v>
+        <v>2.18653</v>
       </c>
       <c r="C90" t="n">
-        <v>1.61342</v>
+        <v>1.61685</v>
       </c>
       <c r="D90" t="n">
-        <v>1.46014</v>
+        <v>1.47964</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.1882</v>
+        <v>2.21233</v>
       </c>
       <c r="C91" t="n">
-        <v>1.62167</v>
+        <v>1.63452</v>
       </c>
       <c r="D91" t="n">
-        <v>1.47433</v>
+        <v>1.49757</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.20926</v>
+        <v>2.23524</v>
       </c>
       <c r="C92" t="n">
-        <v>1.64816</v>
+        <v>1.65429</v>
       </c>
       <c r="D92" t="n">
-        <v>1.51546</v>
+        <v>1.53485</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.253</v>
+        <v>2.26997</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65134</v>
+        <v>1.65698</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5309</v>
+        <v>1.54897</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25953</v>
+        <v>2.29664</v>
       </c>
       <c r="C94" t="n">
-        <v>1.65514</v>
+        <v>1.66538</v>
       </c>
       <c r="D94" t="n">
-        <v>1.54475</v>
+        <v>1.56879</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.28989</v>
+        <v>2.3162</v>
       </c>
       <c r="C95" t="n">
-        <v>1.67409</v>
+        <v>1.67957</v>
       </c>
       <c r="D95" t="n">
-        <v>1.55739</v>
+        <v>1.58393</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.30561</v>
+        <v>2.33794</v>
       </c>
       <c r="C96" t="n">
-        <v>1.67248</v>
+        <v>1.68207</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56917</v>
+        <v>1.59719</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3233</v>
+        <v>2.35439</v>
       </c>
       <c r="C97" t="n">
-        <v>1.67721</v>
+        <v>1.68581</v>
       </c>
       <c r="D97" t="n">
-        <v>1.5804</v>
+        <v>1.61035</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.34454</v>
+        <v>2.37835</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69586</v>
+        <v>1.70432</v>
       </c>
       <c r="D98" t="n">
-        <v>1.58715</v>
+        <v>1.62329</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.35075</v>
+        <v>2.39365</v>
       </c>
       <c r="C99" t="n">
-        <v>1.70049</v>
+        <v>1.712</v>
       </c>
       <c r="D99" t="n">
-        <v>1.59571</v>
+        <v>1.63252</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.3703</v>
+        <v>2.4088</v>
       </c>
       <c r="C100" t="n">
-        <v>1.71153</v>
+        <v>1.72285</v>
       </c>
       <c r="D100" t="n">
-        <v>1.61014</v>
+        <v>1.64405</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.3836</v>
+        <v>2.42293</v>
       </c>
       <c r="C101" t="n">
-        <v>1.72197</v>
+        <v>1.73344</v>
       </c>
       <c r="D101" t="n">
-        <v>1.62646</v>
+        <v>1.65532</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.40663</v>
+        <v>2.44066</v>
       </c>
       <c r="C102" t="n">
-        <v>1.72257</v>
+        <v>1.7444</v>
       </c>
       <c r="D102" t="n">
-        <v>1.6349</v>
+        <v>1.66429</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.41918</v>
+        <v>2.458</v>
       </c>
       <c r="C103" t="n">
-        <v>1.7395</v>
+        <v>1.73639</v>
       </c>
       <c r="D103" t="n">
-        <v>1.64132</v>
+        <v>1.67485</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.43535</v>
+        <v>2.47236</v>
       </c>
       <c r="C104" t="n">
-        <v>1.73428</v>
+        <v>1.75215</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65212</v>
+        <v>1.68391</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.44921</v>
+        <v>2.4861</v>
       </c>
       <c r="C105" t="n">
-        <v>1.75311</v>
+        <v>1.74333</v>
       </c>
       <c r="D105" t="n">
-        <v>1.66264</v>
+        <v>1.69395</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.46529</v>
+        <v>2.5029</v>
       </c>
       <c r="C106" t="n">
-        <v>1.74562</v>
+        <v>1.77694</v>
       </c>
       <c r="D106" t="n">
-        <v>1.67185</v>
+        <v>1.7054</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.48489</v>
+        <v>2.52589</v>
       </c>
       <c r="C107" t="n">
-        <v>1.75442</v>
+        <v>1.77265</v>
       </c>
       <c r="D107" t="n">
-        <v>1.69771</v>
+        <v>1.73164</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.49827</v>
+        <v>2.53968</v>
       </c>
       <c r="C108" t="n">
-        <v>1.76402</v>
+        <v>1.78047</v>
       </c>
       <c r="D108" t="n">
-        <v>1.70656</v>
+        <v>1.74075</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.51333</v>
+        <v>2.55138</v>
       </c>
       <c r="C109" t="n">
-        <v>1.77554</v>
+        <v>1.78435</v>
       </c>
       <c r="D109" t="n">
-        <v>1.71496</v>
+        <v>1.74923</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.52151</v>
+        <v>2.56311</v>
       </c>
       <c r="C110" t="n">
-        <v>1.78306</v>
+        <v>1.7984</v>
       </c>
       <c r="D110" t="n">
-        <v>1.72299</v>
+        <v>1.75578</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.53267</v>
+        <v>2.57772</v>
       </c>
       <c r="C111" t="n">
-        <v>1.79131</v>
+        <v>1.80107</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7308</v>
+        <v>1.7639</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.54663</v>
+        <v>2.58872</v>
       </c>
       <c r="C112" t="n">
-        <v>1.79553</v>
+        <v>1.81143</v>
       </c>
       <c r="D112" t="n">
-        <v>1.73791</v>
+        <v>1.77274</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.56081</v>
+        <v>2.59927</v>
       </c>
       <c r="C113" t="n">
-        <v>1.77868</v>
+        <v>1.80303</v>
       </c>
       <c r="D113" t="n">
-        <v>1.74452</v>
+        <v>1.77973</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.57042</v>
+        <v>2.61048</v>
       </c>
       <c r="C114" t="n">
-        <v>1.80015</v>
+        <v>1.82358</v>
       </c>
       <c r="D114" t="n">
-        <v>1.75198</v>
+        <v>1.78286</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.57818</v>
+        <v>2.62026</v>
       </c>
       <c r="C115" t="n">
-        <v>1.80811</v>
+        <v>1.82348</v>
       </c>
       <c r="D115" t="n">
-        <v>1.7575</v>
+        <v>1.7932</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.58762</v>
+        <v>2.62716</v>
       </c>
       <c r="C116" t="n">
-        <v>1.81136</v>
+        <v>1.8359</v>
       </c>
       <c r="D116" t="n">
-        <v>1.76386</v>
+        <v>1.79832</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5999</v>
+        <v>2.64024</v>
       </c>
       <c r="C117" t="n">
-        <v>1.81417</v>
+        <v>1.84224</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7714</v>
+        <v>1.80263</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.61049</v>
+        <v>2.64951</v>
       </c>
       <c r="C118" t="n">
-        <v>1.82828</v>
+        <v>1.85053</v>
       </c>
       <c r="D118" t="n">
-        <v>1.77674</v>
+        <v>1.81084</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.62174</v>
+        <v>2.66046</v>
       </c>
       <c r="C119" t="n">
-        <v>1.8339</v>
+        <v>1.85533</v>
       </c>
       <c r="D119" t="n">
-        <v>1.78472</v>
+        <v>1.81792</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.77788</v>
+        <v>0.781647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.293913</v>
+        <v>0.295635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.297249</v>
+        <v>0.299914</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.780775</v>
+        <v>0.7834410000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.300354</v>
+        <v>0.301866</v>
       </c>
       <c r="D3" t="n">
-        <v>0.300202</v>
+        <v>0.303061</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.784203</v>
+        <v>0.786976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.303347</v>
+        <v>0.304223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.303185</v>
+        <v>0.306379</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.786923</v>
+        <v>0.789775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306462</v>
+        <v>0.307796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305288</v>
+        <v>0.307711</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7909310000000001</v>
+        <v>0.792555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3114</v>
+        <v>0.31269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.309372</v>
+        <v>0.312212</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7935950000000001</v>
+        <v>0.79591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.31345</v>
+        <v>0.31473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.313766</v>
+        <v>0.316443</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.794644</v>
+        <v>0.796008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.315913</v>
+        <v>0.31775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314874</v>
+        <v>0.318866</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.800183</v>
+        <v>0.801524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.322691</v>
+        <v>0.323352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318826</v>
+        <v>0.321375</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.804748</v>
+        <v>0.805844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.328052</v>
+        <v>0.328317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322357</v>
+        <v>0.325525</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.805994</v>
+        <v>0.807181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.313354</v>
+        <v>0.314482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317071</v>
+        <v>0.31982</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.793564</v>
+        <v>0.794555</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318457</v>
+        <v>0.31856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.321299</v>
+        <v>0.323807</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7968460000000001</v>
+        <v>0.797996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.320106</v>
+        <v>0.319663</v>
       </c>
       <c r="D13" t="n">
-        <v>0.32419</v>
+        <v>0.325023</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.799871</v>
+        <v>0.801144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.323614</v>
+        <v>0.323842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.326438</v>
+        <v>0.328392</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.802102</v>
+        <v>0.802754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.325111</v>
+        <v>0.324826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.327637</v>
+        <v>0.328313</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.803692</v>
+        <v>0.804125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32846</v>
+        <v>0.328269</v>
       </c>
       <c r="D16" t="n">
-        <v>0.330708</v>
+        <v>0.331685</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.804161</v>
+        <v>0.8051160000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330385</v>
+        <v>0.330164</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332618</v>
+        <v>0.333146</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.809182</v>
+        <v>0.809781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.335276</v>
+        <v>0.334993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335906</v>
+        <v>0.33629</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.809732</v>
+        <v>0.809911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.33735</v>
+        <v>0.336772</v>
       </c>
       <c r="D19" t="n">
-        <v>0.337514</v>
+        <v>0.337803</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.814757</v>
+        <v>0.81462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.340878</v>
+        <v>0.339497</v>
       </c>
       <c r="D20" t="n">
-        <v>0.340713</v>
+        <v>0.341281</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8153359999999999</v>
+        <v>0.815132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.344534</v>
+        <v>0.343442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.34276</v>
+        <v>0.343659</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.816597</v>
+        <v>0.81633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.347331</v>
+        <v>0.34622</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344979</v>
+        <v>0.345463</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.818196</v>
+        <v>0.81782</v>
       </c>
       <c r="C23" t="n">
-        <v>0.350243</v>
+        <v>0.34852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347847</v>
+        <v>0.347461</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.820088</v>
+        <v>0.819063</v>
       </c>
       <c r="C24" t="n">
-        <v>0.352618</v>
+        <v>0.350177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.350856</v>
+        <v>0.351307</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.82455</v>
+        <v>0.823583</v>
       </c>
       <c r="C25" t="n">
-        <v>0.355758</v>
+        <v>0.353447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.352737</v>
+        <v>0.353168</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.826648</v>
+        <v>0.826322</v>
       </c>
       <c r="C26" t="n">
-        <v>0.338271</v>
+        <v>0.336073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.344662</v>
+        <v>0.343944</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.816672</v>
+        <v>0.816055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.341841</v>
+        <v>0.339613</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346309</v>
+        <v>0.346066</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.818906</v>
+        <v>0.8190190000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.34254</v>
+        <v>0.340752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.347953</v>
+        <v>0.348372</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.821614</v>
+        <v>0.821143</v>
       </c>
       <c r="C29" t="n">
-        <v>0.343971</v>
+        <v>0.341757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.349164</v>
+        <v>0.349174</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.822064</v>
+        <v>0.8220420000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.345547</v>
+        <v>0.343364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.350917</v>
+        <v>0.350779</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.82429</v>
+        <v>0.824102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.348289</v>
+        <v>0.346288</v>
       </c>
       <c r="D31" t="n">
-        <v>0.352928</v>
+        <v>0.35261</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.825383</v>
+        <v>0.823873</v>
       </c>
       <c r="C32" t="n">
-        <v>0.350651</v>
+        <v>0.348647</v>
       </c>
       <c r="D32" t="n">
-        <v>0.354995</v>
+        <v>0.354431</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.82669</v>
+        <v>0.825886</v>
       </c>
       <c r="C33" t="n">
-        <v>0.352482</v>
+        <v>0.350581</v>
       </c>
       <c r="D33" t="n">
-        <v>0.356088</v>
+        <v>0.356213</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8291230000000001</v>
+        <v>0.828263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.354878</v>
+        <v>0.353053</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357955</v>
+        <v>0.358491</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.830322</v>
+        <v>0.829299</v>
       </c>
       <c r="C35" t="n">
-        <v>0.356944</v>
+        <v>0.354616</v>
       </c>
       <c r="D35" t="n">
-        <v>0.359092</v>
+        <v>0.359211</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8308219999999999</v>
+        <v>0.829595</v>
       </c>
       <c r="C36" t="n">
-        <v>0.36047</v>
+        <v>0.35826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.361624</v>
+        <v>0.362125</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8337830000000001</v>
+        <v>0.83277</v>
       </c>
       <c r="C37" t="n">
-        <v>0.361532</v>
+        <v>0.359258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363266</v>
+        <v>0.363893</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8371960000000001</v>
+        <v>0.835859</v>
       </c>
       <c r="C38" t="n">
-        <v>0.365233</v>
+        <v>0.363124</v>
       </c>
       <c r="D38" t="n">
-        <v>0.366114</v>
+        <v>0.366748</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.836741</v>
+        <v>0.835465</v>
       </c>
       <c r="C39" t="n">
-        <v>0.367593</v>
+        <v>0.365455</v>
       </c>
       <c r="D39" t="n">
-        <v>0.367222</v>
+        <v>0.367749</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.84055</v>
+        <v>0.839314</v>
       </c>
       <c r="C40" t="n">
-        <v>0.348716</v>
+        <v>0.346357</v>
       </c>
       <c r="D40" t="n">
-        <v>0.362309</v>
+        <v>0.362283</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82612</v>
+        <v>0.825748</v>
       </c>
       <c r="C41" t="n">
-        <v>0.350628</v>
+        <v>0.348251</v>
       </c>
       <c r="D41" t="n">
-        <v>0.363979</v>
+        <v>0.363528</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.826695</v>
+        <v>0.826006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.352479</v>
+        <v>0.349813</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364519</v>
+        <v>0.364303</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.829155</v>
+        <v>0.8286520000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.354069</v>
+        <v>0.351197</v>
       </c>
       <c r="D43" t="n">
-        <v>0.366401</v>
+        <v>0.366156</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831064</v>
+        <v>0.829687</v>
       </c>
       <c r="C44" t="n">
-        <v>0.356621</v>
+        <v>0.352893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.368532</v>
+        <v>0.367271</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.832607</v>
+        <v>0.831712</v>
       </c>
       <c r="C45" t="n">
-        <v>0.358959</v>
+        <v>0.355565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370263</v>
+        <v>0.369402</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.834465</v>
+        <v>0.834534</v>
       </c>
       <c r="C46" t="n">
-        <v>0.363601</v>
+        <v>0.361286</v>
       </c>
       <c r="D46" t="n">
-        <v>0.37354</v>
+        <v>0.373875</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.836239</v>
+        <v>0.839185</v>
       </c>
       <c r="C47" t="n">
-        <v>0.365707</v>
+        <v>0.368478</v>
       </c>
       <c r="D47" t="n">
-        <v>0.375084</v>
+        <v>0.380178</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.83861</v>
+        <v>0.838199</v>
       </c>
       <c r="C48" t="n">
-        <v>0.36912</v>
+        <v>0.366472</v>
       </c>
       <c r="D48" t="n">
-        <v>0.377465</v>
+        <v>0.376687</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8406979999999999</v>
+        <v>0.842315</v>
       </c>
       <c r="C49" t="n">
-        <v>0.373503</v>
+        <v>0.372196</v>
       </c>
       <c r="D49" t="n">
-        <v>0.381127</v>
+        <v>0.38297</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.847135</v>
+        <v>0.851784</v>
       </c>
       <c r="C50" t="n">
-        <v>0.382615</v>
+        <v>0.38448</v>
       </c>
       <c r="D50" t="n">
-        <v>0.387964</v>
+        <v>0.392653</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8512189999999999</v>
+        <v>0.854649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389865</v>
+        <v>0.395503</v>
       </c>
       <c r="D51" t="n">
-        <v>0.393422</v>
+        <v>0.399143</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.862013</v>
+        <v>0.858163</v>
       </c>
       <c r="C52" t="n">
-        <v>0.405523</v>
+        <v>0.400767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.407293</v>
+        <v>0.403205</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.862303</v>
+        <v>0.879375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.408072</v>
+        <v>0.427034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.406778</v>
+        <v>0.425337</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.878504</v>
+        <v>0.889806</v>
       </c>
       <c r="C54" t="n">
-        <v>0.417927</v>
+        <v>0.41637</v>
       </c>
       <c r="D54" t="n">
-        <v>0.425501</v>
+        <v>0.427458</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.882817</v>
+        <v>0.8840980000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.433959</v>
+        <v>0.432317</v>
       </c>
       <c r="D55" t="n">
-        <v>0.436338</v>
+        <v>0.440389</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.883131</v>
+        <v>0.906121</v>
       </c>
       <c r="C56" t="n">
-        <v>0.436464</v>
+        <v>0.45698</v>
       </c>
       <c r="D56" t="n">
-        <v>0.434295</v>
+        <v>0.460679</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.905251</v>
+        <v>0.939341</v>
       </c>
       <c r="C57" t="n">
-        <v>0.465341</v>
+        <v>0.5003030000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459166</v>
+        <v>0.495481</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.913991</v>
+        <v>0.959588</v>
       </c>
       <c r="C58" t="n">
-        <v>0.482017</v>
+        <v>0.528805</v>
       </c>
       <c r="D58" t="n">
-        <v>0.468346</v>
+        <v>0.5168430000000001</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.943721</v>
+        <v>0.974607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5229549999999999</v>
+        <v>0.546513</v>
       </c>
       <c r="D59" t="n">
-        <v>0.500516</v>
+        <v>0.530487</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.977026</v>
+        <v>1.00159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.562914</v>
+        <v>0.578797</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5318310000000001</v>
+        <v>0.555242</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01967</v>
+        <v>1.04143</v>
       </c>
       <c r="C61" t="n">
-        <v>0.614056</v>
+        <v>0.626699</v>
       </c>
       <c r="D61" t="n">
-        <v>0.573251</v>
+        <v>0.591246</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.05947</v>
+        <v>1.07808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.66801</v>
+        <v>0.67054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6085739999999999</v>
+        <v>0.622105</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.08577</v>
+        <v>1.11148</v>
       </c>
       <c r="C63" t="n">
-        <v>0.699807</v>
+        <v>0.709683</v>
       </c>
       <c r="D63" t="n">
-        <v>0.63327</v>
+        <v>0.651858</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.14936</v>
+        <v>1.1389</v>
       </c>
       <c r="C64" t="n">
-        <v>0.76601</v>
+        <v>0.741432</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6803360000000001</v>
+        <v>0.677275</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.18579</v>
+        <v>1.17765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.809976</v>
+        <v>0.785409</v>
       </c>
       <c r="D65" t="n">
-        <v>0.71088</v>
+        <v>0.704121</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.23472</v>
+        <v>1.23226</v>
       </c>
       <c r="C66" t="n">
-        <v>0.859711</v>
+        <v>0.837365</v>
       </c>
       <c r="D66" t="n">
-        <v>0.746212</v>
+        <v>0.745385</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.28238</v>
+        <v>1.28102</v>
       </c>
       <c r="C67" t="n">
-        <v>0.912327</v>
+        <v>0.888968</v>
       </c>
       <c r="D67" t="n">
-        <v>0.781114</v>
+        <v>0.778645</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.33465</v>
+        <v>1.32838</v>
       </c>
       <c r="C68" t="n">
-        <v>0.942102</v>
+        <v>0.91314</v>
       </c>
       <c r="D68" t="n">
-        <v>0.823218</v>
+        <v>0.812891</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.36599</v>
+        <v>1.34791</v>
       </c>
       <c r="C69" t="n">
-        <v>0.995493</v>
+        <v>0.960453</v>
       </c>
       <c r="D69" t="n">
-        <v>0.857005</v>
+        <v>0.840982</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.41957</v>
+        <v>1.40526</v>
       </c>
       <c r="C70" t="n">
-        <v>1.03757</v>
+        <v>1.01438</v>
       </c>
       <c r="D70" t="n">
-        <v>0.88944</v>
+        <v>0.88389</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.46998</v>
+        <v>1.46001</v>
       </c>
       <c r="C71" t="n">
-        <v>1.07947</v>
+        <v>1.0511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.922068</v>
+        <v>0.906934</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.52074</v>
+        <v>1.50571</v>
       </c>
       <c r="C72" t="n">
-        <v>1.12242</v>
+        <v>1.09538</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9515400000000001</v>
+        <v>0.950144</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.56803</v>
+        <v>1.54864</v>
       </c>
       <c r="C73" t="n">
-        <v>1.16641</v>
+        <v>1.13342</v>
       </c>
       <c r="D73" t="n">
-        <v>0.988173</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.61442</v>
+        <v>1.59589</v>
       </c>
       <c r="C74" t="n">
-        <v>1.20507</v>
+        <v>1.17049</v>
       </c>
       <c r="D74" t="n">
-        <v>1.01481</v>
+        <v>0.999526</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.66526</v>
+        <v>1.6434</v>
       </c>
       <c r="C75" t="n">
-        <v>1.24447</v>
+        <v>1.21235</v>
       </c>
       <c r="D75" t="n">
-        <v>1.04375</v>
+        <v>1.02563</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.70621</v>
+        <v>1.68614</v>
       </c>
       <c r="C76" t="n">
-        <v>1.28104</v>
+        <v>1.24719</v>
       </c>
       <c r="D76" t="n">
-        <v>1.07611</v>
+        <v>1.06169</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.75289</v>
+        <v>1.72984</v>
       </c>
       <c r="C77" t="n">
-        <v>1.31378</v>
+        <v>1.28464</v>
       </c>
       <c r="D77" t="n">
-        <v>1.10536</v>
+        <v>1.08833</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.79563</v>
+        <v>1.77965</v>
       </c>
       <c r="C78" t="n">
-        <v>1.34767</v>
+        <v>1.32057</v>
       </c>
       <c r="D78" t="n">
-        <v>1.13559</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.84315</v>
+        <v>1.82379</v>
       </c>
       <c r="C79" t="n">
-        <v>1.38368</v>
+        <v>1.3543</v>
       </c>
       <c r="D79" t="n">
-        <v>1.166</v>
+        <v>1.15041</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.88215</v>
+        <v>1.87229</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41804</v>
+        <v>1.39404</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19354</v>
+        <v>1.18312</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.92769</v>
+        <v>1.91459</v>
       </c>
       <c r="C81" t="n">
-        <v>1.45202</v>
+        <v>1.42861</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21954</v>
+        <v>1.21405</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.96653</v>
+        <v>1.96049</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48251</v>
+        <v>1.46281</v>
       </c>
       <c r="D82" t="n">
-        <v>1.24915</v>
+        <v>1.24621</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01286</v>
+        <v>2.0096</v>
       </c>
       <c r="C83" t="n">
-        <v>1.47309</v>
+        <v>1.46088</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27326</v>
+        <v>1.27466</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01009</v>
+        <v>2.01891</v>
       </c>
       <c r="C84" t="n">
-        <v>1.49489</v>
+        <v>1.48729</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2941</v>
+        <v>1.30088</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.04235</v>
+        <v>2.05746</v>
       </c>
       <c r="C85" t="n">
-        <v>1.52091</v>
+        <v>1.51191</v>
       </c>
       <c r="D85" t="n">
-        <v>1.31857</v>
+        <v>1.3253</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.08288</v>
+        <v>2.08114</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54416</v>
+        <v>1.53234</v>
       </c>
       <c r="D86" t="n">
-        <v>1.34132</v>
+        <v>1.34316</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10798</v>
+        <v>2.11106</v>
       </c>
       <c r="C87" t="n">
-        <v>1.56752</v>
+        <v>1.56195</v>
       </c>
       <c r="D87" t="n">
-        <v>1.35992</v>
+        <v>1.36554</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.12534</v>
+        <v>2.14755</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58962</v>
+        <v>1.58684</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37842</v>
+        <v>1.39132</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.14808</v>
+        <v>2.16183</v>
       </c>
       <c r="C89" t="n">
-        <v>1.61447</v>
+        <v>1.60626</v>
       </c>
       <c r="D89" t="n">
-        <v>1.39923</v>
+        <v>1.40659</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.18244</v>
+        <v>2.18811</v>
       </c>
       <c r="C90" t="n">
-        <v>1.63676</v>
+        <v>1.63833</v>
       </c>
       <c r="D90" t="n">
-        <v>1.41938</v>
+        <v>1.43781</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.19996</v>
+        <v>2.20819</v>
       </c>
       <c r="C91" t="n">
-        <v>1.66016</v>
+        <v>1.66567</v>
       </c>
       <c r="D91" t="n">
-        <v>1.44102</v>
+        <v>1.45626</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.21885</v>
+        <v>2.23309</v>
       </c>
       <c r="C92" t="n">
-        <v>1.68508</v>
+        <v>1.68641</v>
       </c>
       <c r="D92" t="n">
-        <v>1.45969</v>
+        <v>1.47252</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.24284</v>
+        <v>2.26026</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70938</v>
+        <v>1.70727</v>
       </c>
       <c r="D93" t="n">
-        <v>1.48073</v>
+        <v>1.49506</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.27255</v>
+        <v>2.29451</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73063</v>
+        <v>1.7344</v>
       </c>
       <c r="D94" t="n">
-        <v>1.50306</v>
+        <v>1.51955</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.30418</v>
+        <v>2.32434</v>
       </c>
       <c r="C95" t="n">
-        <v>1.76091</v>
+        <v>1.76137</v>
       </c>
       <c r="D95" t="n">
-        <v>1.52456</v>
+        <v>1.53945</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.33259</v>
+        <v>2.34294</v>
       </c>
       <c r="C96" t="n">
-        <v>1.78706</v>
+        <v>1.7884</v>
       </c>
       <c r="D96" t="n">
-        <v>1.54412</v>
+        <v>1.55905</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3568</v>
+        <v>2.3762</v>
       </c>
       <c r="C97" t="n">
-        <v>1.72855</v>
+        <v>1.73097</v>
       </c>
       <c r="D97" t="n">
-        <v>1.55137</v>
+        <v>1.56859</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.33262</v>
+        <v>2.35534</v>
       </c>
       <c r="C98" t="n">
-        <v>1.73815</v>
+        <v>1.74523</v>
       </c>
       <c r="D98" t="n">
-        <v>1.56941</v>
+        <v>1.58691</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.35839</v>
+        <v>2.38156</v>
       </c>
       <c r="C99" t="n">
-        <v>1.75974</v>
+        <v>1.76662</v>
       </c>
       <c r="D99" t="n">
-        <v>1.58296</v>
+        <v>1.60597</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.37937</v>
+        <v>2.40778</v>
       </c>
       <c r="C100" t="n">
-        <v>1.77526</v>
+        <v>1.7818</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59868</v>
+        <v>1.62445</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.40124</v>
+        <v>2.4247</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79155</v>
+        <v>1.79904</v>
       </c>
       <c r="D101" t="n">
-        <v>1.61514</v>
+        <v>1.63877</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.41894</v>
+        <v>2.45119</v>
       </c>
       <c r="C102" t="n">
-        <v>1.81123</v>
+        <v>1.81547</v>
       </c>
       <c r="D102" t="n">
-        <v>1.62783</v>
+        <v>1.65462</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.44465</v>
+        <v>2.47363</v>
       </c>
       <c r="C103" t="n">
-        <v>1.81699</v>
+        <v>1.83706</v>
       </c>
       <c r="D103" t="n">
-        <v>1.64013</v>
+        <v>1.66664</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.46706</v>
+        <v>2.50273</v>
       </c>
       <c r="C104" t="n">
-        <v>1.84721</v>
+        <v>1.84831</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65863</v>
+        <v>1.68727</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.49268</v>
+        <v>2.51849</v>
       </c>
       <c r="C105" t="n">
-        <v>1.86162</v>
+        <v>1.8739</v>
       </c>
       <c r="D105" t="n">
-        <v>1.67305</v>
+        <v>1.70065</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.51417</v>
+        <v>2.54942</v>
       </c>
       <c r="C106" t="n">
-        <v>1.87987</v>
+        <v>1.89268</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6876</v>
+        <v>1.71613</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.53445</v>
+        <v>2.56918</v>
       </c>
       <c r="C107" t="n">
-        <v>1.90117</v>
+        <v>1.90953</v>
       </c>
       <c r="D107" t="n">
-        <v>1.70392</v>
+        <v>1.73194</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.56264</v>
+        <v>2.59578</v>
       </c>
       <c r="C108" t="n">
-        <v>1.91407</v>
+        <v>1.93645</v>
       </c>
       <c r="D108" t="n">
-        <v>1.71962</v>
+        <v>1.75161</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.58452</v>
+        <v>2.61834</v>
       </c>
       <c r="C109" t="n">
-        <v>1.93307</v>
+        <v>1.95295</v>
       </c>
       <c r="D109" t="n">
-        <v>1.73654</v>
+        <v>1.76669</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.60941</v>
+        <v>2.6458</v>
       </c>
       <c r="C110" t="n">
-        <v>1.96013</v>
+        <v>1.97311</v>
       </c>
       <c r="D110" t="n">
-        <v>1.74749</v>
+        <v>1.77948</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.63279</v>
+        <v>2.6706</v>
       </c>
       <c r="C111" t="n">
-        <v>1.84868</v>
+        <v>1.8703</v>
       </c>
       <c r="D111" t="n">
-        <v>1.73728</v>
+        <v>1.76493</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58697</v>
+        <v>2.62298</v>
       </c>
       <c r="C112" t="n">
-        <v>1.86524</v>
+        <v>1.8783</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74737</v>
+        <v>1.77835</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.60402</v>
+        <v>2.64121</v>
       </c>
       <c r="C113" t="n">
-        <v>1.88234</v>
+        <v>1.90105</v>
       </c>
       <c r="D113" t="n">
-        <v>1.75924</v>
+        <v>1.78813</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.62261</v>
+        <v>2.66158</v>
       </c>
       <c r="C114" t="n">
-        <v>1.90442</v>
+        <v>1.91359</v>
       </c>
       <c r="D114" t="n">
-        <v>1.76981</v>
+        <v>1.80282</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.64039</v>
+        <v>2.67761</v>
       </c>
       <c r="C115" t="n">
-        <v>1.91293</v>
+        <v>1.92949</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78297</v>
+        <v>1.81695</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.65593</v>
+        <v>2.69754</v>
       </c>
       <c r="C116" t="n">
-        <v>1.92935</v>
+        <v>1.93924</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79589</v>
+        <v>1.8314</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.67238</v>
+        <v>2.71272</v>
       </c>
       <c r="C117" t="n">
-        <v>1.94472</v>
+        <v>1.96476</v>
       </c>
       <c r="D117" t="n">
-        <v>1.80554</v>
+        <v>1.83881</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.68914</v>
+        <v>2.73099</v>
       </c>
       <c r="C118" t="n">
-        <v>1.94933</v>
+        <v>1.97861</v>
       </c>
       <c r="D118" t="n">
-        <v>1.81721</v>
+        <v>1.85301</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.70759</v>
+        <v>2.7481</v>
       </c>
       <c r="C119" t="n">
-        <v>1.97629</v>
+        <v>1.98328</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82909</v>
+        <v>1.86363</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure by key.xlsx
+++ b/clang_libcpp/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.773011</v>
+        <v>0.769738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290225</v>
+        <v>0.287921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.300933</v>
+        <v>0.297856</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.774827</v>
+        <v>0.769957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292363</v>
+        <v>0.288313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.301945</v>
+        <v>0.297888</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.77861</v>
+        <v>0.773181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.296093</v>
+        <v>0.29341</v>
       </c>
       <c r="D4" t="n">
-        <v>0.305759</v>
+        <v>0.30155</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7799779999999999</v>
+        <v>0.774473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.295854</v>
+        <v>0.291832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307523</v>
+        <v>0.302911</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.781968</v>
+        <v>0.7752599999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.299553</v>
+        <v>0.295166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.308976</v>
+        <v>0.304388</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.78413</v>
+        <v>0.778479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.302122</v>
+        <v>0.299116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31573</v>
+        <v>0.31331</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.778931</v>
+        <v>0.7767039999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.303228</v>
+        <v>0.301192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.31681</v>
+        <v>0.315078</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.781647</v>
+        <v>0.7783600000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.305467</v>
+        <v>0.302958</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318798</v>
+        <v>0.317522</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.783065</v>
+        <v>0.780246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.306567</v>
+        <v>0.303916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321079</v>
+        <v>0.319639</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.784483</v>
+        <v>0.7817770000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.308234</v>
+        <v>0.305827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.322196</v>
+        <v>0.321139</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.786552</v>
+        <v>0.783817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.309842</v>
+        <v>0.306795</v>
       </c>
       <c r="D12" t="n">
-        <v>0.323625</v>
+        <v>0.321239</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.788053</v>
+        <v>0.78476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311445</v>
+        <v>0.308536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325213</v>
+        <v>0.323055</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.790085</v>
+        <v>0.788529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313198</v>
+        <v>0.310773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327425</v>
+        <v>0.326327</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.791717</v>
+        <v>0.788659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.313957</v>
+        <v>0.311302</v>
       </c>
       <c r="D15" t="n">
-        <v>0.32946</v>
+        <v>0.32713</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.793852</v>
+        <v>0.790775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.314607</v>
+        <v>0.312514</v>
       </c>
       <c r="D16" t="n">
-        <v>0.330389</v>
+        <v>0.329469</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.794481</v>
+        <v>0.791472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.316821</v>
+        <v>0.314971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.331873</v>
+        <v>0.330626</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.796744</v>
+        <v>0.794242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.31844</v>
+        <v>0.31673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334039</v>
+        <v>0.333657</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.796417</v>
+        <v>0.795495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.319987</v>
+        <v>0.318301</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334742</v>
+        <v>0.334483</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.798289</v>
+        <v>0.797527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3216</v>
+        <v>0.320026</v>
       </c>
       <c r="D20" t="n">
-        <v>0.336332</v>
+        <v>0.33603</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8008</v>
+        <v>0.7982089999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.320958</v>
+        <v>0.319455</v>
       </c>
       <c r="D21" t="n">
-        <v>0.338095</v>
+        <v>0.337365</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.799331</v>
+        <v>0.79798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.321215</v>
+        <v>0.319707</v>
       </c>
       <c r="D22" t="n">
-        <v>0.338768</v>
+        <v>0.337857</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.800242</v>
+        <v>0.798721</v>
       </c>
       <c r="C23" t="n">
-        <v>0.322416</v>
+        <v>0.321352</v>
       </c>
       <c r="D23" t="n">
-        <v>0.339979</v>
+        <v>0.339528</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.80137</v>
+        <v>0.800244</v>
       </c>
       <c r="C24" t="n">
-        <v>0.323985</v>
+        <v>0.322884</v>
       </c>
       <c r="D24" t="n">
-        <v>0.341818</v>
+        <v>0.341339</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.803582</v>
+        <v>0.802647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.324185</v>
+        <v>0.323292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.342823</v>
+        <v>0.342472</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.804273</v>
+        <v>0.802902</v>
       </c>
       <c r="C26" t="n">
-        <v>0.32434</v>
+        <v>0.323331</v>
       </c>
       <c r="D26" t="n">
-        <v>0.342981</v>
+        <v>0.342268</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.804881</v>
+        <v>0.8043979999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.325078</v>
+        <v>0.324405</v>
       </c>
       <c r="D27" t="n">
-        <v>0.344192</v>
+        <v>0.344115</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.805936</v>
+        <v>0.805137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.32605</v>
+        <v>0.325463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344813</v>
+        <v>0.344933</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8078070000000001</v>
+        <v>0.807104</v>
       </c>
       <c r="C29" t="n">
-        <v>0.326273</v>
+        <v>0.325631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.345853</v>
+        <v>0.345815</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.808275</v>
+        <v>0.807705</v>
       </c>
       <c r="C30" t="n">
-        <v>0.32727</v>
+        <v>0.326593</v>
       </c>
       <c r="D30" t="n">
-        <v>0.346437</v>
+        <v>0.346288</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.809628</v>
+        <v>0.808443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.328643</v>
+        <v>0.328051</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347277</v>
+        <v>0.347367</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.809806</v>
+        <v>0.808666</v>
       </c>
       <c r="C32" t="n">
-        <v>0.329302</v>
+        <v>0.3286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348436</v>
+        <v>0.348382</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.811852</v>
+        <v>0.8111390000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.330381</v>
+        <v>0.32966</v>
       </c>
       <c r="D33" t="n">
-        <v>0.349469</v>
+        <v>0.349177</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8121119999999999</v>
+        <v>0.811468</v>
       </c>
       <c r="C34" t="n">
-        <v>0.331253</v>
+        <v>0.33063</v>
       </c>
       <c r="D34" t="n">
-        <v>0.350412</v>
+        <v>0.3503</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8130309999999999</v>
+        <v>0.812432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.329478</v>
+        <v>0.329116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.350913</v>
+        <v>0.351233</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.805929</v>
+        <v>0.804845</v>
       </c>
       <c r="C36" t="n">
-        <v>0.329524</v>
+        <v>0.328978</v>
       </c>
       <c r="D36" t="n">
-        <v>0.351451</v>
+        <v>0.351511</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.807744</v>
+        <v>0.807063</v>
       </c>
       <c r="C37" t="n">
-        <v>0.329756</v>
+        <v>0.329211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.352173</v>
+        <v>0.352213</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.809122</v>
+        <v>0.808145</v>
       </c>
       <c r="C38" t="n">
-        <v>0.331819</v>
+        <v>0.331409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353235</v>
+        <v>0.352966</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.809701</v>
+        <v>0.8087530000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.331695</v>
+        <v>0.33112</v>
       </c>
       <c r="D39" t="n">
-        <v>0.354281</v>
+        <v>0.35398</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810339</v>
+        <v>0.809662</v>
       </c>
       <c r="C40" t="n">
-        <v>0.332593</v>
+        <v>0.331737</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35478</v>
+        <v>0.35471</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.812141</v>
+        <v>0.811157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.333171</v>
+        <v>0.333153</v>
       </c>
       <c r="D41" t="n">
-        <v>0.356229</v>
+        <v>0.356044</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.812558</v>
+        <v>0.812324</v>
       </c>
       <c r="C42" t="n">
-        <v>0.334773</v>
+        <v>0.335185</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35719</v>
+        <v>0.356748</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.813667</v>
+        <v>0.812638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.33453</v>
+        <v>0.33411</v>
       </c>
       <c r="D43" t="n">
-        <v>0.357667</v>
+        <v>0.357291</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.813896</v>
+        <v>0.813026</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334947</v>
+        <v>0.33427</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357978</v>
+        <v>0.357728</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8153860000000001</v>
+        <v>0.8147489999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.336591</v>
+        <v>0.335575</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359214</v>
+        <v>0.358232</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.816393</v>
+        <v>0.815723</v>
       </c>
       <c r="C46" t="n">
-        <v>0.338621</v>
+        <v>0.337757</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361112</v>
+        <v>0.359488</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.822204</v>
+        <v>0.816792</v>
       </c>
       <c r="C47" t="n">
-        <v>0.346096</v>
+        <v>0.338045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.367593</v>
+        <v>0.36041</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.821601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.350509</v>
+        <v>0.344724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.371652</v>
+        <v>0.366405</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.829604</v>
+        <v>0.8259880000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.356562</v>
+        <v>0.354684</v>
       </c>
       <c r="D49" t="n">
-        <v>0.377112</v>
+        <v>0.374885</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.839888</v>
+        <v>0.8322349999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.380693</v>
+        <v>0.37378</v>
       </c>
       <c r="D50" t="n">
-        <v>0.402772</v>
+        <v>0.394306</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8481379999999999</v>
+        <v>0.841185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.388263</v>
+        <v>0.379678</v>
       </c>
       <c r="D51" t="n">
-        <v>0.407402</v>
+        <v>0.400872</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.855282</v>
+        <v>0.857872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.399572</v>
+        <v>0.40069</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414793</v>
+        <v>0.416449</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.871167</v>
+        <v>0.8677</v>
       </c>
       <c r="C53" t="n">
-        <v>0.43165</v>
+        <v>0.414533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.441927</v>
+        <v>0.42512</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8940399999999999</v>
+        <v>0.891715</v>
       </c>
       <c r="C54" t="n">
-        <v>0.451571</v>
+        <v>0.447549</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456535</v>
+        <v>0.455388</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.912976</v>
+        <v>0.896884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.477914</v>
+        <v>0.45605</v>
       </c>
       <c r="D55" t="n">
-        <v>0.47801</v>
+        <v>0.458984</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.934675</v>
+        <v>0.913478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.503174</v>
+        <v>0.47733</v>
       </c>
       <c r="D56" t="n">
-        <v>0.498384</v>
+        <v>0.474471</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.961183</v>
+        <v>0.941258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.540238</v>
+        <v>0.518232</v>
       </c>
       <c r="D57" t="n">
-        <v>0.527208</v>
+        <v>0.506011</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.987919</v>
+        <v>0.957224</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565537</v>
+        <v>0.541442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.543907</v>
+        <v>0.522371</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.0098</v>
+        <v>0.9910369999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6009060000000001</v>
+        <v>0.585934</v>
       </c>
       <c r="D59" t="n">
-        <v>0.571796</v>
+        <v>0.553134</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.05016</v>
+        <v>1.01839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.650802</v>
+        <v>0.622892</v>
       </c>
       <c r="D60" t="n">
-        <v>0.602643</v>
+        <v>0.580135</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.07491</v>
+        <v>1.05847</v>
       </c>
       <c r="C61" t="n">
-        <v>0.684088</v>
+        <v>0.670597</v>
       </c>
       <c r="D61" t="n">
-        <v>0.632362</v>
+        <v>0.617428</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10758</v>
+        <v>1.11116</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7217519999999999</v>
+        <v>0.730129</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6626649999999999</v>
+        <v>0.6610200000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15178</v>
+        <v>1.14582</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7736189999999999</v>
+        <v>0.768621</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7001270000000001</v>
+        <v>0.694468</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.19611</v>
+        <v>1.19409</v>
       </c>
       <c r="C64" t="n">
-        <v>0.879881</v>
+        <v>0.874898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.798926</v>
+        <v>0.790768</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.28953</v>
+        <v>1.28486</v>
       </c>
       <c r="C65" t="n">
-        <v>0.919638</v>
+        <v>0.915596</v>
       </c>
       <c r="D65" t="n">
-        <v>0.81842</v>
+        <v>0.812744</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.3401</v>
+        <v>1.33531</v>
       </c>
       <c r="C66" t="n">
-        <v>0.965679</v>
+        <v>0.9661419999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.850647</v>
+        <v>0.845693</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39243</v>
+        <v>1.38863</v>
       </c>
       <c r="C67" t="n">
-        <v>1.01493</v>
+        <v>1.01389</v>
       </c>
       <c r="D67" t="n">
-        <v>0.890402</v>
+        <v>0.886482</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.44035</v>
+        <v>1.44282</v>
       </c>
       <c r="C68" t="n">
-        <v>1.05939</v>
+        <v>1.05577</v>
       </c>
       <c r="D68" t="n">
-        <v>0.922382</v>
+        <v>0.917172</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.48928</v>
+        <v>1.479</v>
       </c>
       <c r="C69" t="n">
-        <v>1.09913</v>
+        <v>1.09413</v>
       </c>
       <c r="D69" t="n">
-        <v>0.952018</v>
+        <v>0.946173</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.5241</v>
+        <v>1.52424</v>
       </c>
       <c r="C70" t="n">
-        <v>1.13378</v>
+        <v>1.13093</v>
       </c>
       <c r="D70" t="n">
-        <v>0.979455</v>
+        <v>0.978841</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.56872</v>
+        <v>1.56541</v>
       </c>
       <c r="C71" t="n">
-        <v>1.16954</v>
+        <v>1.16748</v>
       </c>
       <c r="D71" t="n">
-        <v>1.00857</v>
+        <v>1.01102</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.61676</v>
+        <v>1.61778</v>
       </c>
       <c r="C72" t="n">
-        <v>1.2079</v>
+        <v>1.20735</v>
       </c>
       <c r="D72" t="n">
-        <v>1.03742</v>
+        <v>1.04245</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.65594</v>
+        <v>1.66473</v>
       </c>
       <c r="C73" t="n">
-        <v>1.2379</v>
+        <v>1.23905</v>
       </c>
       <c r="D73" t="n">
-        <v>1.06902</v>
+        <v>1.0722</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.7049</v>
+        <v>1.69304</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2737</v>
+        <v>1.26336</v>
       </c>
       <c r="D74" t="n">
-        <v>1.10141</v>
+        <v>1.09304</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.74494</v>
+        <v>1.74551</v>
       </c>
       <c r="C75" t="n">
-        <v>1.30128</v>
+        <v>1.30118</v>
       </c>
       <c r="D75" t="n">
-        <v>1.12794</v>
+        <v>1.12841</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.77759</v>
+        <v>1.77942</v>
       </c>
       <c r="C76" t="n">
-        <v>1.32348</v>
+        <v>1.32507</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15389</v>
+        <v>1.15416</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.81715</v>
+        <v>1.81526</v>
       </c>
       <c r="C77" t="n">
-        <v>1.35099</v>
+        <v>1.35018</v>
       </c>
       <c r="D77" t="n">
-        <v>1.17843</v>
+        <v>1.17714</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.85477</v>
+        <v>1.85376</v>
       </c>
       <c r="C78" t="n">
-        <v>1.41997</v>
+        <v>1.42016</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24891</v>
+        <v>1.25025</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.93181</v>
+        <v>1.94076</v>
       </c>
       <c r="C79" t="n">
-        <v>1.43425</v>
+        <v>1.43708</v>
       </c>
       <c r="D79" t="n">
-        <v>1.26687</v>
+        <v>1.27229</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.96832</v>
+        <v>1.96813</v>
       </c>
       <c r="C80" t="n">
-        <v>1.45398</v>
+        <v>1.45535</v>
       </c>
       <c r="D80" t="n">
-        <v>1.29289</v>
+        <v>1.2954</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.99641</v>
+        <v>2.00234</v>
       </c>
       <c r="C81" t="n">
-        <v>1.47607</v>
+        <v>1.4769</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31708</v>
+        <v>1.31782</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.01878</v>
+        <v>2.02182</v>
       </c>
       <c r="C82" t="n">
-        <v>1.4889</v>
+        <v>1.4881</v>
       </c>
       <c r="D82" t="n">
-        <v>1.33828</v>
+        <v>1.33841</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.04733</v>
+        <v>2.05575</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50694</v>
+        <v>1.50958</v>
       </c>
       <c r="D83" t="n">
-        <v>1.35813</v>
+        <v>1.36084</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.06884</v>
+        <v>2.07051</v>
       </c>
       <c r="C84" t="n">
-        <v>1.52892</v>
+        <v>1.52838</v>
       </c>
       <c r="D84" t="n">
-        <v>1.37883</v>
+        <v>1.37799</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07982</v>
+        <v>2.09035</v>
       </c>
       <c r="C85" t="n">
-        <v>1.54731</v>
+        <v>1.54551</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39949</v>
+        <v>1.39973</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.11147</v>
+        <v>2.11283</v>
       </c>
       <c r="C86" t="n">
-        <v>1.5611</v>
+        <v>1.56215</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41405</v>
+        <v>1.41381</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1232</v>
+        <v>2.12565</v>
       </c>
       <c r="C87" t="n">
-        <v>1.57389</v>
+        <v>1.57503</v>
       </c>
       <c r="D87" t="n">
-        <v>1.42658</v>
+        <v>1.43115</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14099</v>
+        <v>2.14879</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58679</v>
+        <v>1.59176</v>
       </c>
       <c r="D88" t="n">
-        <v>1.44417</v>
+        <v>1.44896</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.16593</v>
+        <v>2.16617</v>
       </c>
       <c r="C89" t="n">
-        <v>1.6045</v>
+        <v>1.60594</v>
       </c>
       <c r="D89" t="n">
-        <v>1.46352</v>
+        <v>1.46581</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.18653</v>
+        <v>2.17393</v>
       </c>
       <c r="C90" t="n">
-        <v>1.61685</v>
+        <v>1.60968</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47964</v>
+        <v>1.47135</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21233</v>
+        <v>2.20352</v>
       </c>
       <c r="C91" t="n">
-        <v>1.63452</v>
+        <v>1.62387</v>
       </c>
       <c r="D91" t="n">
-        <v>1.49757</v>
+        <v>1.49041</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.23524</v>
+        <v>2.2285</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65429</v>
+        <v>1.65195</v>
       </c>
       <c r="D92" t="n">
-        <v>1.53485</v>
+        <v>1.53644</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26997</v>
+        <v>2.27376</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65698</v>
+        <v>1.65907</v>
       </c>
       <c r="D93" t="n">
-        <v>1.54897</v>
+        <v>1.55305</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.29664</v>
+        <v>2.29362</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66538</v>
+        <v>1.66892</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56879</v>
+        <v>1.56763</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.3162</v>
+        <v>2.31371</v>
       </c>
       <c r="C95" t="n">
-        <v>1.67957</v>
+        <v>1.67108</v>
       </c>
       <c r="D95" t="n">
-        <v>1.58393</v>
+        <v>1.57766</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.33794</v>
+        <v>2.33698</v>
       </c>
       <c r="C96" t="n">
-        <v>1.68207</v>
+        <v>1.68102</v>
       </c>
       <c r="D96" t="n">
-        <v>1.59719</v>
+        <v>1.59527</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.35439</v>
+        <v>2.35403</v>
       </c>
       <c r="C97" t="n">
-        <v>1.68581</v>
+        <v>1.69239</v>
       </c>
       <c r="D97" t="n">
-        <v>1.61035</v>
+        <v>1.60697</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.37835</v>
+        <v>2.37441</v>
       </c>
       <c r="C98" t="n">
-        <v>1.70432</v>
+        <v>1.68738</v>
       </c>
       <c r="D98" t="n">
-        <v>1.62329</v>
+        <v>1.6188</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.39365</v>
+        <v>2.38949</v>
       </c>
       <c r="C99" t="n">
-        <v>1.712</v>
+        <v>1.71135</v>
       </c>
       <c r="D99" t="n">
-        <v>1.63252</v>
+        <v>1.63091</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.4088</v>
+        <v>2.40766</v>
       </c>
       <c r="C100" t="n">
-        <v>1.72285</v>
+        <v>1.72353</v>
       </c>
       <c r="D100" t="n">
-        <v>1.64405</v>
+        <v>1.64298</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.42293</v>
+        <v>2.41876</v>
       </c>
       <c r="C101" t="n">
-        <v>1.73344</v>
+        <v>1.72382</v>
       </c>
       <c r="D101" t="n">
-        <v>1.65532</v>
+        <v>1.65225</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.44066</v>
+        <v>2.43694</v>
       </c>
       <c r="C102" t="n">
-        <v>1.7444</v>
+        <v>1.72883</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66429</v>
+        <v>1.66034</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.458</v>
+        <v>2.4538</v>
       </c>
       <c r="C103" t="n">
-        <v>1.73639</v>
+        <v>1.74944</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67485</v>
+        <v>1.67015</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.47236</v>
+        <v>2.46752</v>
       </c>
       <c r="C104" t="n">
-        <v>1.75215</v>
+        <v>1.74777</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68391</v>
+        <v>1.68076</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.4861</v>
+        <v>2.48632</v>
       </c>
       <c r="C105" t="n">
-        <v>1.74333</v>
+        <v>1.77076</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69395</v>
+        <v>1.69458</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.5029</v>
+        <v>2.50046</v>
       </c>
       <c r="C106" t="n">
-        <v>1.77694</v>
+        <v>1.76941</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7054</v>
+        <v>1.70209</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.52589</v>
+        <v>2.52626</v>
       </c>
       <c r="C107" t="n">
-        <v>1.77265</v>
+        <v>1.77958</v>
       </c>
       <c r="D107" t="n">
-        <v>1.73164</v>
+        <v>1.73117</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.53968</v>
+        <v>2.53867</v>
       </c>
       <c r="C108" t="n">
-        <v>1.78047</v>
+        <v>1.78747</v>
       </c>
       <c r="D108" t="n">
-        <v>1.74075</v>
+        <v>1.74193</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.55138</v>
+        <v>2.55145</v>
       </c>
       <c r="C109" t="n">
-        <v>1.78435</v>
+        <v>1.78402</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74923</v>
+        <v>1.74975</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.56311</v>
+        <v>2.56363</v>
       </c>
       <c r="C110" t="n">
-        <v>1.7984</v>
+        <v>1.80449</v>
       </c>
       <c r="D110" t="n">
-        <v>1.75578</v>
+        <v>1.75869</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.57772</v>
+        <v>2.5774</v>
       </c>
       <c r="C111" t="n">
-        <v>1.80107</v>
+        <v>1.79367</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7639</v>
+        <v>1.76483</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58872</v>
+        <v>2.5867</v>
       </c>
       <c r="C112" t="n">
-        <v>1.81143</v>
+        <v>1.80985</v>
       </c>
       <c r="D112" t="n">
-        <v>1.77274</v>
+        <v>1.77254</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.59927</v>
+        <v>2.59958</v>
       </c>
       <c r="C113" t="n">
-        <v>1.80303</v>
+        <v>1.79596</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77973</v>
+        <v>1.7765</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.61048</v>
+        <v>2.60725</v>
       </c>
       <c r="C114" t="n">
-        <v>1.82358</v>
+        <v>1.81735</v>
       </c>
       <c r="D114" t="n">
-        <v>1.78286</v>
+        <v>1.78402</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.62026</v>
+        <v>2.61682</v>
       </c>
       <c r="C115" t="n">
-        <v>1.82348</v>
+        <v>1.83001</v>
       </c>
       <c r="D115" t="n">
-        <v>1.7932</v>
+        <v>1.78994</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62716</v>
+        <v>2.62866</v>
       </c>
       <c r="C116" t="n">
-        <v>1.8359</v>
+        <v>1.83281</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79832</v>
+        <v>1.79783</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.64024</v>
+        <v>2.63918</v>
       </c>
       <c r="C117" t="n">
-        <v>1.84224</v>
+        <v>1.84605</v>
       </c>
       <c r="D117" t="n">
-        <v>1.80263</v>
+        <v>1.80266</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.64951</v>
+        <v>2.64964</v>
       </c>
       <c r="C118" t="n">
-        <v>1.85053</v>
+        <v>1.84422</v>
       </c>
       <c r="D118" t="n">
-        <v>1.81084</v>
+        <v>1.81021</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.66046</v>
+        <v>2.65909</v>
       </c>
       <c r="C119" t="n">
-        <v>1.85533</v>
+        <v>1.85684</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81792</v>
+        <v>1.8178</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781647</v>
+        <v>0.771922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295635</v>
+        <v>0.28624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.299914</v>
+        <v>0.291499</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7834410000000001</v>
+        <v>0.77396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.301866</v>
+        <v>0.291162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.303061</v>
+        <v>0.294038</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.786976</v>
+        <v>0.778486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304223</v>
+        <v>0.29512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.306379</v>
+        <v>0.298939</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.789775</v>
+        <v>0.780586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307796</v>
+        <v>0.297657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307711</v>
+        <v>0.300085</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.792555</v>
+        <v>0.784282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.31269</v>
+        <v>0.303118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.312212</v>
+        <v>0.304337</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.79591</v>
+        <v>0.786119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.31473</v>
+        <v>0.304105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.316443</v>
+        <v>0.307157</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.796008</v>
+        <v>0.786094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31775</v>
+        <v>0.306753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.318866</v>
+        <v>0.308955</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.801524</v>
+        <v>0.791499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.323352</v>
+        <v>0.31335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321375</v>
+        <v>0.312908</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.805844</v>
+        <v>0.795512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.328317</v>
+        <v>0.317246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.325525</v>
+        <v>0.315481</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.807181</v>
+        <v>0.797654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.314482</v>
+        <v>0.303786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31982</v>
+        <v>0.31042</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.794555</v>
+        <v>0.7841939999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31856</v>
+        <v>0.307638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.323807</v>
+        <v>0.313474</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.797996</v>
+        <v>0.7871359999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.319663</v>
+        <v>0.309485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325023</v>
+        <v>0.315262</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.801144</v>
+        <v>0.78983</v>
       </c>
       <c r="C14" t="n">
-        <v>0.323842</v>
+        <v>0.313133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328392</v>
+        <v>0.317787</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.802754</v>
+        <v>0.793241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.324826</v>
+        <v>0.315564</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328313</v>
+        <v>0.319857</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.804125</v>
+        <v>0.793083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.328269</v>
+        <v>0.318053</v>
       </c>
       <c r="D16" t="n">
-        <v>0.331685</v>
+        <v>0.321738</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8051160000000001</v>
+        <v>0.7948769999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330164</v>
+        <v>0.320191</v>
       </c>
       <c r="D17" t="n">
-        <v>0.333146</v>
+        <v>0.323857</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.809781</v>
+        <v>0.798721</v>
       </c>
       <c r="C18" t="n">
-        <v>0.334993</v>
+        <v>0.325197</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33629</v>
+        <v>0.326696</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.809911</v>
+        <v>0.800243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.336772</v>
+        <v>0.327923</v>
       </c>
       <c r="D19" t="n">
-        <v>0.337803</v>
+        <v>0.328978</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.81462</v>
+        <v>0.805125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.339497</v>
+        <v>0.330571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341281</v>
+        <v>0.332439</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.815132</v>
+        <v>0.806045</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343442</v>
+        <v>0.334882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343659</v>
+        <v>0.33488</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.81633</v>
+        <v>0.807122</v>
       </c>
       <c r="C22" t="n">
-        <v>0.34622</v>
+        <v>0.337612</v>
       </c>
       <c r="D22" t="n">
-        <v>0.345463</v>
+        <v>0.337242</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.81782</v>
+        <v>0.808656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.34852</v>
+        <v>0.340063</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347461</v>
+        <v>0.339416</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.819063</v>
+        <v>0.81073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.350177</v>
+        <v>0.342227</v>
       </c>
       <c r="D24" t="n">
-        <v>0.351307</v>
+        <v>0.343307</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.823583</v>
+        <v>0.814746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.353447</v>
+        <v>0.345495</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353168</v>
+        <v>0.345821</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.826322</v>
+        <v>0.818191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.336073</v>
+        <v>0.329313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343944</v>
+        <v>0.337285</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.816055</v>
+        <v>0.808544</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339613</v>
+        <v>0.332888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346066</v>
+        <v>0.338735</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8190190000000001</v>
+        <v>0.810791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.340752</v>
+        <v>0.334225</v>
       </c>
       <c r="D28" t="n">
-        <v>0.348372</v>
+        <v>0.341432</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.821143</v>
+        <v>0.813692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.341757</v>
+        <v>0.335665</v>
       </c>
       <c r="D29" t="n">
-        <v>0.349174</v>
+        <v>0.342745</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8220420000000001</v>
+        <v>0.814824</v>
       </c>
       <c r="C30" t="n">
-        <v>0.343364</v>
+        <v>0.337239</v>
       </c>
       <c r="D30" t="n">
-        <v>0.350779</v>
+        <v>0.344189</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824102</v>
+        <v>0.816954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.346288</v>
+        <v>0.340252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.35261</v>
+        <v>0.345975</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.823873</v>
+        <v>0.817433</v>
       </c>
       <c r="C32" t="n">
-        <v>0.348647</v>
+        <v>0.343039</v>
       </c>
       <c r="D32" t="n">
-        <v>0.354431</v>
+        <v>0.348088</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.825886</v>
+        <v>0.819313</v>
       </c>
       <c r="C33" t="n">
-        <v>0.350581</v>
+        <v>0.344827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.356213</v>
+        <v>0.34969</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.828263</v>
+        <v>0.821655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.353053</v>
+        <v>0.347565</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358491</v>
+        <v>0.352058</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.829299</v>
+        <v>0.823105</v>
       </c>
       <c r="C35" t="n">
-        <v>0.354616</v>
+        <v>0.349065</v>
       </c>
       <c r="D35" t="n">
-        <v>0.359211</v>
+        <v>0.353349</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.829595</v>
+        <v>0.823215</v>
       </c>
       <c r="C36" t="n">
-        <v>0.35826</v>
+        <v>0.352756</v>
       </c>
       <c r="D36" t="n">
-        <v>0.362125</v>
+        <v>0.356143</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.83277</v>
+        <v>0.826449</v>
       </c>
       <c r="C37" t="n">
-        <v>0.359258</v>
+        <v>0.353962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363893</v>
+        <v>0.357614</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.835859</v>
+        <v>0.82978</v>
       </c>
       <c r="C38" t="n">
-        <v>0.363124</v>
+        <v>0.357789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.366748</v>
+        <v>0.36116</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.835465</v>
+        <v>0.829383</v>
       </c>
       <c r="C39" t="n">
-        <v>0.365455</v>
+        <v>0.360211</v>
       </c>
       <c r="D39" t="n">
-        <v>0.367749</v>
+        <v>0.361872</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.839314</v>
+        <v>0.833452</v>
       </c>
       <c r="C40" t="n">
-        <v>0.346357</v>
+        <v>0.342256</v>
       </c>
       <c r="D40" t="n">
-        <v>0.362283</v>
+        <v>0.357311</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.825748</v>
+        <v>0.820342</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348251</v>
+        <v>0.344101</v>
       </c>
       <c r="D41" t="n">
-        <v>0.363528</v>
+        <v>0.358642</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.826006</v>
+        <v>0.821193</v>
       </c>
       <c r="C42" t="n">
-        <v>0.349813</v>
+        <v>0.34575</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364303</v>
+        <v>0.35938</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8286520000000001</v>
+        <v>0.8237100000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.351197</v>
+        <v>0.347209</v>
       </c>
       <c r="D43" t="n">
-        <v>0.366156</v>
+        <v>0.361502</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.829687</v>
+        <v>0.825004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.352893</v>
+        <v>0.348778</v>
       </c>
       <c r="D44" t="n">
-        <v>0.367271</v>
+        <v>0.362495</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.831712</v>
+        <v>0.826246</v>
       </c>
       <c r="C45" t="n">
-        <v>0.355565</v>
+        <v>0.350803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.369402</v>
+        <v>0.364068</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.834534</v>
+        <v>0.827566</v>
       </c>
       <c r="C46" t="n">
-        <v>0.361286</v>
+        <v>0.35409</v>
       </c>
       <c r="D46" t="n">
-        <v>0.373875</v>
+        <v>0.366159</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.839185</v>
+        <v>0.829471</v>
       </c>
       <c r="C47" t="n">
-        <v>0.368478</v>
+        <v>0.35592</v>
       </c>
       <c r="D47" t="n">
-        <v>0.380178</v>
+        <v>0.367514</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.838199</v>
+        <v>0.832257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.366472</v>
+        <v>0.359811</v>
       </c>
       <c r="D48" t="n">
-        <v>0.376687</v>
+        <v>0.370346</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.842315</v>
+        <v>0.832179</v>
       </c>
       <c r="C49" t="n">
-        <v>0.372196</v>
+        <v>0.360627</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38297</v>
+        <v>0.370806</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.851784</v>
+        <v>0.8352000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38448</v>
+        <v>0.364632</v>
       </c>
       <c r="D50" t="n">
-        <v>0.392653</v>
+        <v>0.3743</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.854649</v>
+        <v>0.843085</v>
       </c>
       <c r="C51" t="n">
-        <v>0.395503</v>
+        <v>0.378758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.399143</v>
+        <v>0.385934</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.858163</v>
+        <v>0.846512</v>
       </c>
       <c r="C52" t="n">
-        <v>0.400767</v>
+        <v>0.38586</v>
       </c>
       <c r="D52" t="n">
-        <v>0.403205</v>
+        <v>0.391035</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.879375</v>
+        <v>0.86124</v>
       </c>
       <c r="C53" t="n">
-        <v>0.427034</v>
+        <v>0.402974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.425337</v>
+        <v>0.405569</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.889806</v>
+        <v>0.872301</v>
       </c>
       <c r="C54" t="n">
-        <v>0.41637</v>
+        <v>0.384194</v>
       </c>
       <c r="D54" t="n">
-        <v>0.427458</v>
+        <v>0.402831</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8840980000000001</v>
+        <v>0.86581</v>
       </c>
       <c r="C55" t="n">
-        <v>0.432317</v>
+        <v>0.402796</v>
       </c>
       <c r="D55" t="n">
-        <v>0.440389</v>
+        <v>0.414958</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.906121</v>
+        <v>0.873149</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45698</v>
+        <v>0.412673</v>
       </c>
       <c r="D56" t="n">
-        <v>0.460679</v>
+        <v>0.422557</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.939341</v>
+        <v>0.901502</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5003030000000001</v>
+        <v>0.445208</v>
       </c>
       <c r="D57" t="n">
-        <v>0.495481</v>
+        <v>0.449647</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.959588</v>
+        <v>0.924898</v>
       </c>
       <c r="C58" t="n">
-        <v>0.528805</v>
+        <v>0.472113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5168430000000001</v>
+        <v>0.471045</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.974607</v>
+        <v>0.950561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.546513</v>
+        <v>0.506547</v>
       </c>
       <c r="D59" t="n">
-        <v>0.530487</v>
+        <v>0.500577</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.00159</v>
+        <v>0.989665</v>
       </c>
       <c r="C60" t="n">
-        <v>0.578797</v>
+        <v>0.557321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555242</v>
+        <v>0.539466</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.04143</v>
+        <v>1.01971</v>
       </c>
       <c r="C61" t="n">
-        <v>0.626699</v>
+        <v>0.59858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.591246</v>
+        <v>0.568909</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.07808</v>
+        <v>1.05561</v>
       </c>
       <c r="C62" t="n">
-        <v>0.67054</v>
+        <v>0.638455</v>
       </c>
       <c r="D62" t="n">
-        <v>0.622105</v>
+        <v>0.598436</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.11148</v>
+        <v>1.10127</v>
       </c>
       <c r="C63" t="n">
-        <v>0.709683</v>
+        <v>0.688645</v>
       </c>
       <c r="D63" t="n">
-        <v>0.651858</v>
+        <v>0.6367699999999999</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.1389</v>
+        <v>1.14045</v>
       </c>
       <c r="C64" t="n">
-        <v>0.741432</v>
+        <v>0.736359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.677275</v>
+        <v>0.6742089999999999</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.17765</v>
+        <v>1.18786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.785409</v>
+        <v>0.799342</v>
       </c>
       <c r="D65" t="n">
-        <v>0.704121</v>
+        <v>0.71283</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.23226</v>
+        <v>1.22809</v>
       </c>
       <c r="C66" t="n">
-        <v>0.837365</v>
+        <v>0.838495</v>
       </c>
       <c r="D66" t="n">
-        <v>0.745385</v>
+        <v>0.741629</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.28102</v>
+        <v>1.27609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.888968</v>
+        <v>0.895167</v>
       </c>
       <c r="D67" t="n">
-        <v>0.778645</v>
+        <v>0.780836</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.32838</v>
+        <v>1.33542</v>
       </c>
       <c r="C68" t="n">
-        <v>0.91314</v>
+        <v>0.920022</v>
       </c>
       <c r="D68" t="n">
-        <v>0.812891</v>
+        <v>0.821832</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.34791</v>
+        <v>1.36649</v>
       </c>
       <c r="C69" t="n">
-        <v>0.960453</v>
+        <v>0.978097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.840982</v>
+        <v>0.858708</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.40526</v>
+        <v>1.42267</v>
       </c>
       <c r="C70" t="n">
-        <v>1.01438</v>
+        <v>1.021</v>
       </c>
       <c r="D70" t="n">
-        <v>0.88389</v>
+        <v>0.89353</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.46001</v>
+        <v>1.46657</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0511</v>
+        <v>1.06156</v>
       </c>
       <c r="D71" t="n">
-        <v>0.906934</v>
+        <v>0.919551</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.50571</v>
+        <v>1.51615</v>
       </c>
       <c r="C72" t="n">
-        <v>1.09538</v>
+        <v>1.10216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.950144</v>
+        <v>0.949623</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.54864</v>
+        <v>1.56542</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13342</v>
+        <v>1.14841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.969</v>
+        <v>0.984828</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.59589</v>
+        <v>1.60938</v>
       </c>
       <c r="C74" t="n">
-        <v>1.17049</v>
+        <v>1.18588</v>
       </c>
       <c r="D74" t="n">
-        <v>0.999526</v>
+        <v>1.01412</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.6434</v>
+        <v>1.66791</v>
       </c>
       <c r="C75" t="n">
-        <v>1.21235</v>
+        <v>1.22999</v>
       </c>
       <c r="D75" t="n">
-        <v>1.02563</v>
+        <v>1.05141</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.68614</v>
+        <v>1.70781</v>
       </c>
       <c r="C76" t="n">
-        <v>1.24719</v>
+        <v>1.26533</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06169</v>
+        <v>1.08075</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.72984</v>
+        <v>1.75245</v>
       </c>
       <c r="C77" t="n">
-        <v>1.28464</v>
+        <v>1.30096</v>
       </c>
       <c r="D77" t="n">
-        <v>1.08833</v>
+        <v>1.11006</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.77965</v>
+        <v>1.80223</v>
       </c>
       <c r="C78" t="n">
-        <v>1.32057</v>
+        <v>1.33771</v>
       </c>
       <c r="D78" t="n">
-        <v>1.125</v>
+        <v>1.14287</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.82379</v>
+        <v>1.84938</v>
       </c>
       <c r="C79" t="n">
-        <v>1.3543</v>
+        <v>1.3758</v>
       </c>
       <c r="D79" t="n">
-        <v>1.15041</v>
+        <v>1.17512</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.87229</v>
+        <v>1.88961</v>
       </c>
       <c r="C80" t="n">
-        <v>1.39404</v>
+        <v>1.4105</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18312</v>
+        <v>1.20106</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.91459</v>
+        <v>1.93606</v>
       </c>
       <c r="C81" t="n">
-        <v>1.42861</v>
+        <v>1.45034</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21405</v>
+        <v>1.23148</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.96049</v>
+        <v>1.97753</v>
       </c>
       <c r="C82" t="n">
-        <v>1.46281</v>
+        <v>1.48146</v>
       </c>
       <c r="D82" t="n">
-        <v>1.24621</v>
+        <v>1.2579</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.0096</v>
+        <v>2.02503</v>
       </c>
       <c r="C83" t="n">
-        <v>1.46088</v>
+        <v>1.47554</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27466</v>
+        <v>1.28677</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01891</v>
+        <v>2.02482</v>
       </c>
       <c r="C84" t="n">
-        <v>1.48729</v>
+        <v>1.4963</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30088</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.05746</v>
+        <v>2.06296</v>
       </c>
       <c r="C85" t="n">
-        <v>1.51191</v>
+        <v>1.52092</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3253</v>
+        <v>1.33262</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.08114</v>
+        <v>2.0847</v>
       </c>
       <c r="C86" t="n">
-        <v>1.53234</v>
+        <v>1.54246</v>
       </c>
       <c r="D86" t="n">
-        <v>1.34316</v>
+        <v>1.3537</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.11106</v>
+        <v>2.12212</v>
       </c>
       <c r="C87" t="n">
-        <v>1.56195</v>
+        <v>1.56937</v>
       </c>
       <c r="D87" t="n">
-        <v>1.36554</v>
+        <v>1.37574</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14755</v>
+        <v>2.14345</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58684</v>
+        <v>1.59541</v>
       </c>
       <c r="D88" t="n">
-        <v>1.39132</v>
+        <v>1.39899</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.16183</v>
+        <v>2.16088</v>
       </c>
       <c r="C89" t="n">
-        <v>1.60626</v>
+        <v>1.61826</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40659</v>
+        <v>1.41756</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.18811</v>
+        <v>2.18709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.63833</v>
+        <v>1.64082</v>
       </c>
       <c r="D90" t="n">
-        <v>1.43781</v>
+        <v>1.43957</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.20819</v>
+        <v>2.20571</v>
       </c>
       <c r="C91" t="n">
-        <v>1.66567</v>
+        <v>1.66569</v>
       </c>
       <c r="D91" t="n">
-        <v>1.45626</v>
+        <v>1.46035</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.23309</v>
+        <v>2.23143</v>
       </c>
       <c r="C92" t="n">
-        <v>1.68641</v>
+        <v>1.6897</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47252</v>
+        <v>1.48106</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26026</v>
+        <v>2.26408</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70727</v>
+        <v>1.7132</v>
       </c>
       <c r="D93" t="n">
-        <v>1.49506</v>
+        <v>1.50273</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.29451</v>
+        <v>2.29312</v>
       </c>
       <c r="C94" t="n">
-        <v>1.7344</v>
+        <v>1.73947</v>
       </c>
       <c r="D94" t="n">
-        <v>1.51955</v>
+        <v>1.52191</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.32434</v>
+        <v>2.32171</v>
       </c>
       <c r="C95" t="n">
-        <v>1.76137</v>
+        <v>1.76668</v>
       </c>
       <c r="D95" t="n">
-        <v>1.53945</v>
+        <v>1.54576</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.34294</v>
+        <v>2.34534</v>
       </c>
       <c r="C96" t="n">
-        <v>1.7884</v>
+        <v>1.78874</v>
       </c>
       <c r="D96" t="n">
-        <v>1.55905</v>
+        <v>1.56301</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3762</v>
+        <v>2.3765</v>
       </c>
       <c r="C97" t="n">
-        <v>1.73097</v>
+        <v>1.7318</v>
       </c>
       <c r="D97" t="n">
-        <v>1.56859</v>
+        <v>1.57288</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.35534</v>
+        <v>2.3585</v>
       </c>
       <c r="C98" t="n">
-        <v>1.74523</v>
+        <v>1.74548</v>
       </c>
       <c r="D98" t="n">
-        <v>1.58691</v>
+        <v>1.58678</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.38156</v>
+        <v>2.38216</v>
       </c>
       <c r="C99" t="n">
-        <v>1.76662</v>
+        <v>1.7649</v>
       </c>
       <c r="D99" t="n">
-        <v>1.60597</v>
+        <v>1.60271</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.40778</v>
+        <v>2.40297</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7818</v>
+        <v>1.77676</v>
       </c>
       <c r="D100" t="n">
-        <v>1.62445</v>
+        <v>1.61882</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.4247</v>
+        <v>2.42157</v>
       </c>
       <c r="C101" t="n">
-        <v>1.79904</v>
+        <v>1.79132</v>
       </c>
       <c r="D101" t="n">
-        <v>1.63877</v>
+        <v>1.63492</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.45119</v>
+        <v>2.4495</v>
       </c>
       <c r="C102" t="n">
-        <v>1.81547</v>
+        <v>1.80548</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65462</v>
+        <v>1.65297</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.47363</v>
+        <v>2.47047</v>
       </c>
       <c r="C103" t="n">
-        <v>1.83706</v>
+        <v>1.82411</v>
       </c>
       <c r="D103" t="n">
-        <v>1.66664</v>
+        <v>1.66818</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.50273</v>
+        <v>2.50016</v>
       </c>
       <c r="C104" t="n">
-        <v>1.84831</v>
+        <v>1.85161</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68727</v>
+        <v>1.68465</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.51849</v>
+        <v>2.5191</v>
       </c>
       <c r="C105" t="n">
-        <v>1.8739</v>
+        <v>1.86244</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70065</v>
+        <v>1.69969</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.54942</v>
+        <v>2.54396</v>
       </c>
       <c r="C106" t="n">
-        <v>1.89268</v>
+        <v>1.88039</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71613</v>
+        <v>1.71416</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.56918</v>
+        <v>2.57091</v>
       </c>
       <c r="C107" t="n">
-        <v>1.90953</v>
+        <v>1.90394</v>
       </c>
       <c r="D107" t="n">
-        <v>1.73194</v>
+        <v>1.73336</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.59578</v>
+        <v>2.5922</v>
       </c>
       <c r="C108" t="n">
-        <v>1.93645</v>
+        <v>1.91627</v>
       </c>
       <c r="D108" t="n">
-        <v>1.75161</v>
+        <v>1.74901</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.61834</v>
+        <v>2.61528</v>
       </c>
       <c r="C109" t="n">
-        <v>1.95295</v>
+        <v>1.93864</v>
       </c>
       <c r="D109" t="n">
-        <v>1.76669</v>
+        <v>1.76408</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.6458</v>
+        <v>2.64223</v>
       </c>
       <c r="C110" t="n">
-        <v>1.97311</v>
+        <v>1.96928</v>
       </c>
       <c r="D110" t="n">
-        <v>1.77948</v>
+        <v>1.77872</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.6706</v>
+        <v>2.66886</v>
       </c>
       <c r="C111" t="n">
-        <v>1.8703</v>
+        <v>1.87419</v>
       </c>
       <c r="D111" t="n">
-        <v>1.76493</v>
+        <v>1.76663</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.62298</v>
+        <v>2.62174</v>
       </c>
       <c r="C112" t="n">
-        <v>1.8783</v>
+        <v>1.87899</v>
       </c>
       <c r="D112" t="n">
-        <v>1.77835</v>
+        <v>1.77947</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.64121</v>
+        <v>2.63986</v>
       </c>
       <c r="C113" t="n">
-        <v>1.90105</v>
+        <v>1.88608</v>
       </c>
       <c r="D113" t="n">
-        <v>1.78813</v>
+        <v>1.79203</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.66158</v>
+        <v>2.78954</v>
       </c>
       <c r="C114" t="n">
-        <v>1.91359</v>
+        <v>2.06283</v>
       </c>
       <c r="D114" t="n">
-        <v>1.80282</v>
+        <v>1.99458</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.67761</v>
+        <v>2.93938</v>
       </c>
       <c r="C115" t="n">
-        <v>1.92949</v>
+        <v>2.08017</v>
       </c>
       <c r="D115" t="n">
-        <v>1.81695</v>
+        <v>2.00884</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.69754</v>
+        <v>2.95804</v>
       </c>
       <c r="C116" t="n">
-        <v>1.93924</v>
+        <v>2.09637</v>
       </c>
       <c r="D116" t="n">
-        <v>1.8314</v>
+        <v>2.02161</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.71272</v>
+        <v>2.97659</v>
       </c>
       <c r="C117" t="n">
-        <v>1.96476</v>
+        <v>2.10881</v>
       </c>
       <c r="D117" t="n">
-        <v>1.83881</v>
+        <v>2.03118</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.73099</v>
+        <v>2.99912</v>
       </c>
       <c r="C118" t="n">
-        <v>1.97861</v>
+        <v>2.12834</v>
       </c>
       <c r="D118" t="n">
-        <v>1.85301</v>
+        <v>2.04754</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.7481</v>
+        <v>3.01982</v>
       </c>
       <c r="C119" t="n">
-        <v>1.98328</v>
+        <v>2.14603</v>
       </c>
       <c r="D119" t="n">
-        <v>1.86363</v>
+        <v>2.05662</v>
       </c>
     </row>
   </sheetData>
